--- a/docs/quaternion-test/quaternion-test.xlsx
+++ b/docs/quaternion-test/quaternion-test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d216e6e2a7a44ec1/dev/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d216e6e2a7a44ec1/dev/git/geovis/docs/quaternion-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="quaternion-test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>diff</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>millis</t>
+  </si>
+  <si>
+    <t>total magnitiude</t>
+  </si>
+  <si>
+    <t>(good; this should be a unit quternion)</t>
   </si>
 </sst>
 </file>
@@ -6671,15 +6677,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U199"/>
+  <dimension ref="A1:X199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="23" max="23" width="21.44140625" customWidth="1"/>
+    <col min="24" max="24" width="38.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -6695,8 +6705,14 @@
       <c r="Q1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100</v>
       </c>
@@ -6760,8 +6776,12 @@
       <c r="U2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W2">
+        <f>SQRT(POWER(B2,2)+POWER(G2,2)+POWER(L2,2)+POWER(Q2,2))</f>
+        <v>0.99994883369100451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>200</v>
       </c>
@@ -6777,7 +6797,7 @@
         <v>0.99660000000000004</v>
       </c>
       <c r="E3">
-        <f>B4-B3</f>
+        <f t="shared" ref="E3:E34" si="0">B4-B3</f>
         <v>1.9999999999997797E-4</v>
       </c>
       <c r="F3">
@@ -6796,7 +6816,7 @@
         <v>0.90610000000000002</v>
       </c>
       <c r="J3">
-        <f>G4-G3</f>
+        <f t="shared" ref="J3:J34" si="1">G4-G3</f>
         <v>-1.7000000000000001E-3</v>
       </c>
       <c r="K3">
@@ -6815,7 +6835,7 @@
         <v>0.71160000000000001</v>
       </c>
       <c r="O3">
-        <f>L4-L3</f>
+        <f t="shared" ref="O3:O34" si="2">L4-L3</f>
         <v>-9.9999999999999395E-5</v>
       </c>
       <c r="P3">
@@ -6834,15 +6854,19 @@
         <v>0.91900000000000004</v>
       </c>
       <c r="T3">
-        <f>Q4-Q3</f>
+        <f t="shared" ref="T3:T34" si="3">Q4-Q3</f>
         <v>-2.1999999999999936E-3</v>
       </c>
       <c r="U3">
         <f>MAX(T:T)</f>
         <v>0.77769999999999995</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W3">
+        <f t="shared" ref="W3:W66" si="4">SQRT(POWER(B3,2)+POWER(G3,2)+POWER(L3,2)+POWER(Q3,2))</f>
+        <v>1.0000078449692282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>300</v>
       </c>
@@ -6850,32 +6874,36 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="E4">
-        <f>B5-B4</f>
+        <f t="shared" si="0"/>
         <v>-1.0000000000000009E-3</v>
       </c>
       <c r="G4">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="J4">
-        <f>G5-G4</f>
+        <f t="shared" si="1"/>
         <v>-1.7000000000000001E-3</v>
       </c>
       <c r="L4">
         <v>-8.6E-3</v>
       </c>
       <c r="O4">
-        <f>L5-L4</f>
+        <f t="shared" si="2"/>
         <v>-1.1999999999999997E-3</v>
       </c>
       <c r="Q4">
         <v>8.3400000000000002E-2</v>
       </c>
       <c r="T4">
-        <f>Q5-Q4</f>
+        <f t="shared" si="3"/>
         <v>1.1599999999999999E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W4">
+        <f t="shared" si="4"/>
+        <v>0.99999936499979836</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>400</v>
       </c>
@@ -6883,32 +6911,36 @@
         <v>0.99539999999999995</v>
       </c>
       <c r="E5">
-        <f>B6-B5</f>
+        <f t="shared" si="0"/>
         <v>-3.4999999999999476E-3</v>
       </c>
       <c r="G5">
         <v>1.0800000000000001E-2</v>
       </c>
       <c r="J5">
-        <f>G6-G5</f>
+        <f t="shared" si="1"/>
         <v>5.899999999999999E-3</v>
       </c>
       <c r="L5">
         <v>-9.7999999999999997E-3</v>
       </c>
       <c r="O5">
-        <f>L6-L5</f>
+        <f t="shared" si="2"/>
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="Q5">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="T5">
-        <f>Q6-Q5</f>
+        <f t="shared" si="3"/>
         <v>2.9200000000000004E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W5">
+        <f t="shared" si="4"/>
+        <v>1.0000294195672446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>500</v>
       </c>
@@ -6916,32 +6948,36 @@
         <v>0.9919</v>
       </c>
       <c r="E6">
-        <f>B7-B6</f>
+        <f t="shared" si="0"/>
         <v>-8.0000000000000071E-3</v>
       </c>
       <c r="G6">
         <v>1.67E-2</v>
       </c>
       <c r="J6">
-        <f>G7-G6</f>
+        <f t="shared" si="1"/>
         <v>2.3199999999999998E-2</v>
       </c>
       <c r="L6">
         <v>1.9699999999999999E-2</v>
       </c>
       <c r="O6">
-        <f>L7-L6</f>
+        <f t="shared" si="2"/>
         <v>1.9400000000000004E-2</v>
       </c>
       <c r="Q6">
         <v>0.1242</v>
       </c>
       <c r="T6">
-        <f>Q7-Q6</f>
+        <f t="shared" si="3"/>
         <v>4.519999999999999E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W6">
+        <f t="shared" si="4"/>
+        <v>0.99997911478190382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>600</v>
       </c>
@@ -6949,32 +6985,36 @@
         <v>0.9839</v>
       </c>
       <c r="E7">
-        <f>B8-B7</f>
+        <f t="shared" si="0"/>
         <v>-9.4999999999999529E-3</v>
       </c>
       <c r="G7">
         <v>3.9899999999999998E-2</v>
       </c>
       <c r="J7">
-        <f>G8-G7</f>
+        <f t="shared" si="1"/>
         <v>-1.0499999999999999E-2</v>
       </c>
       <c r="L7">
         <v>3.9100000000000003E-2</v>
       </c>
       <c r="O7">
-        <f>L8-L7</f>
+        <f t="shared" si="2"/>
         <v>-2.7600000000000003E-2</v>
       </c>
       <c r="Q7">
         <v>0.1694</v>
       </c>
       <c r="T7">
-        <f>Q8-Q7</f>
+        <f t="shared" si="3"/>
         <v>5.3400000000000003E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W7">
+        <f t="shared" si="4"/>
+        <v>0.99993819308995291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>700</v>
       </c>
@@ -6982,32 +7022,36 @@
         <v>0.97440000000000004</v>
       </c>
       <c r="E8">
-        <f>B9-B8</f>
+        <f t="shared" si="0"/>
         <v>-1.430000000000009E-2</v>
       </c>
       <c r="G8">
         <v>2.9399999999999999E-2</v>
       </c>
       <c r="J8">
-        <f>G9-G8</f>
+        <f t="shared" si="1"/>
         <v>-3.5999999999999997E-2</v>
       </c>
       <c r="L8">
         <v>1.15E-2</v>
       </c>
       <c r="O8">
-        <f>L9-L8</f>
+        <f t="shared" si="2"/>
         <v>-1.66E-2</v>
       </c>
       <c r="Q8">
         <v>0.2228</v>
       </c>
       <c r="T8">
-        <f>Q9-Q8</f>
+        <f t="shared" si="3"/>
         <v>5.6599999999999984E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W8">
+        <f t="shared" si="4"/>
+        <v>1.0000459039464138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>800</v>
       </c>
@@ -7015,32 +7059,36 @@
         <v>0.96009999999999995</v>
       </c>
       <c r="E9">
-        <f>B10-B9</f>
+        <f t="shared" si="0"/>
         <v>-1.4499999999999957E-2</v>
       </c>
       <c r="G9">
         <v>-6.6E-3</v>
       </c>
       <c r="J9">
-        <f>G10-G9</f>
+        <f t="shared" si="1"/>
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="L9">
         <v>-5.1000000000000004E-3</v>
       </c>
       <c r="O9">
-        <f>L10-L9</f>
+        <f t="shared" si="2"/>
         <v>-1.3999999999999999E-2</v>
       </c>
       <c r="Q9">
         <v>0.27939999999999998</v>
       </c>
       <c r="T9">
-        <f>Q10-Q9</f>
+        <f t="shared" si="3"/>
         <v>4.4000000000000039E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W9">
+        <f t="shared" si="4"/>
+        <v>0.99996296931436413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>900</v>
       </c>
@@ -7048,32 +7096,36 @@
         <v>0.9456</v>
       </c>
       <c r="E10">
-        <f>B11-B10</f>
+        <f t="shared" si="0"/>
         <v>-1.1700000000000044E-2</v>
       </c>
       <c r="G10">
         <v>-3.1600000000000003E-2</v>
       </c>
       <c r="J10">
-        <f>G11-G10</f>
+        <f t="shared" si="1"/>
         <v>-4.1300000000000003E-2</v>
       </c>
       <c r="L10">
         <v>-1.9099999999999999E-2</v>
       </c>
       <c r="O10">
-        <f>L11-L10</f>
+        <f t="shared" si="2"/>
         <v>5.6999999999999985E-3</v>
       </c>
       <c r="Q10">
         <v>0.32340000000000002</v>
       </c>
       <c r="T10">
-        <f>Q11-Q10</f>
+        <f t="shared" si="3"/>
         <v>2.629999999999999E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W10">
+        <f t="shared" si="4"/>
+        <v>1.0000551434795983</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1000</v>
       </c>
@@ -7081,32 +7133,36 @@
         <v>0.93389999999999995</v>
       </c>
       <c r="E11">
-        <f>B12-B11</f>
+        <f t="shared" si="0"/>
         <v>3.9000000000000146E-3</v>
       </c>
       <c r="G11">
         <v>-7.2900000000000006E-2</v>
       </c>
       <c r="J11">
-        <f>G12-G11</f>
+        <f t="shared" si="1"/>
         <v>-5.0199999999999995E-2</v>
       </c>
       <c r="L11">
         <v>-1.34E-2</v>
       </c>
       <c r="O11">
-        <f>L12-L11</f>
+        <f t="shared" si="2"/>
         <v>6.8000000000000005E-3</v>
       </c>
       <c r="Q11">
         <v>0.34970000000000001</v>
       </c>
       <c r="T11">
-        <f>Q12-Q11</f>
+        <f t="shared" si="3"/>
         <v>-2.52E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W11">
+        <f t="shared" si="4"/>
+        <v>0.99997663472703191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1100</v>
       </c>
@@ -7114,32 +7170,36 @@
         <v>0.93779999999999997</v>
       </c>
       <c r="E12">
-        <f>B13-B12</f>
+        <f t="shared" si="0"/>
         <v>-1.9999999999997797E-4</v>
       </c>
       <c r="G12">
         <v>-0.1231</v>
       </c>
       <c r="J12">
-        <f>G13-G12</f>
+        <f t="shared" si="1"/>
         <v>-0.14290000000000003</v>
       </c>
       <c r="L12">
         <v>-6.6E-3</v>
       </c>
       <c r="O12">
-        <f>L13-L12</f>
+        <f t="shared" si="2"/>
         <v>-7.060000000000001E-2</v>
       </c>
       <c r="Q12">
         <v>0.32450000000000001</v>
       </c>
       <c r="T12">
-        <f>Q13-Q12</f>
+        <f t="shared" si="3"/>
         <v>-0.11420000000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W12">
+        <f t="shared" si="4"/>
+        <v>0.9999831298576991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1200</v>
       </c>
@@ -7147,32 +7207,36 @@
         <v>0.93759999999999999</v>
       </c>
       <c r="E13">
-        <f>B14-B13</f>
+        <f t="shared" si="0"/>
         <v>-6.3400000000000012E-2</v>
       </c>
       <c r="G13">
         <v>-0.26600000000000001</v>
       </c>
       <c r="J13">
-        <f>G14-G13</f>
+        <f t="shared" si="1"/>
         <v>-0.17130000000000001</v>
       </c>
       <c r="L13">
         <v>-7.7200000000000005E-2</v>
       </c>
       <c r="O13">
-        <f>L14-L13</f>
+        <f t="shared" si="2"/>
         <v>-0.13340000000000002</v>
       </c>
       <c r="Q13">
         <v>0.21029999999999999</v>
       </c>
       <c r="T13">
-        <f>Q14-Q13</f>
+        <f t="shared" si="3"/>
         <v>-0.2228</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W13">
+        <f t="shared" si="4"/>
+        <v>1.0000178448407808</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1300</v>
       </c>
@@ -7180,32 +7244,36 @@
         <v>0.87419999999999998</v>
       </c>
       <c r="E14">
-        <f>B15-B14</f>
+        <f t="shared" si="0"/>
         <v>-8.6099999999999954E-2</v>
       </c>
       <c r="G14">
         <v>-0.43730000000000002</v>
       </c>
       <c r="J14">
-        <f>G15-G14</f>
+        <f t="shared" si="1"/>
         <v>-6.579999999999997E-2</v>
       </c>
       <c r="L14">
         <v>-0.21060000000000001</v>
       </c>
       <c r="O14">
-        <f>L15-L14</f>
+        <f t="shared" si="2"/>
         <v>-6.5500000000000003E-2</v>
       </c>
       <c r="Q14">
         <v>-1.2500000000000001E-2</v>
       </c>
       <c r="T14">
-        <f>Q15-Q14</f>
+        <f t="shared" si="3"/>
         <v>-0.20989999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W14">
+        <f t="shared" si="4"/>
+        <v>0.99998276985156098</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1400</v>
       </c>
@@ -7213,32 +7281,36 @@
         <v>0.78810000000000002</v>
       </c>
       <c r="E15">
-        <f>B16-B15</f>
+        <f t="shared" si="0"/>
         <v>-0.122</v>
       </c>
       <c r="G15">
         <v>-0.50309999999999999</v>
       </c>
       <c r="J15">
-        <f>G16-G15</f>
+        <f t="shared" si="1"/>
         <v>1.479999999999998E-2</v>
       </c>
       <c r="L15">
         <v>-0.27610000000000001</v>
       </c>
       <c r="O15">
-        <f>L16-L15</f>
+        <f t="shared" si="2"/>
         <v>-0.10619999999999996</v>
       </c>
       <c r="Q15">
         <v>-0.22239999999999999</v>
       </c>
       <c r="T15">
-        <f>Q16-Q15</f>
+        <f t="shared" si="3"/>
         <v>-0.19190000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W15">
+        <f t="shared" si="4"/>
+        <v>0.99995209385250061</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1500</v>
       </c>
@@ -7246,32 +7318,36 @@
         <v>0.66610000000000003</v>
       </c>
       <c r="E16">
-        <f>B17-B16</f>
+        <f t="shared" si="0"/>
         <v>-0.20610000000000001</v>
       </c>
       <c r="G16">
         <v>-0.48830000000000001</v>
       </c>
       <c r="J16">
-        <f>G17-G16</f>
+        <f t="shared" si="1"/>
         <v>9.9700000000000011E-2</v>
       </c>
       <c r="L16">
         <v>-0.38229999999999997</v>
       </c>
       <c r="O16">
-        <f>L17-L16</f>
+        <f t="shared" si="2"/>
         <v>-0.11460000000000004</v>
       </c>
       <c r="Q16">
         <v>-0.4143</v>
       </c>
       <c r="T16">
-        <f>Q17-Q16</f>
+        <f t="shared" si="3"/>
         <v>-0.21050000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W16">
+        <f t="shared" si="4"/>
+        <v>0.99996193927569066</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1600</v>
       </c>
@@ -7279,32 +7355,36 @@
         <v>0.46</v>
       </c>
       <c r="E17">
-        <f>B18-B17</f>
+        <f t="shared" si="0"/>
         <v>-0.23280000000000001</v>
       </c>
       <c r="G17">
         <v>-0.3886</v>
       </c>
       <c r="J17">
-        <f>G18-G17</f>
+        <f t="shared" si="1"/>
         <v>0.17030000000000001</v>
       </c>
       <c r="L17">
         <v>-0.49690000000000001</v>
       </c>
       <c r="O17">
-        <f>L18-L17</f>
+        <f t="shared" si="2"/>
         <v>1.5300000000000036E-2</v>
       </c>
       <c r="Q17">
         <v>-0.62480000000000002</v>
       </c>
       <c r="T17">
-        <f>Q18-Q17</f>
+        <f t="shared" si="3"/>
         <v>-0.19299999999999995</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W17">
+        <f t="shared" si="4"/>
+        <v>0.99994730361154538</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1700</v>
       </c>
@@ -7312,32 +7392,36 @@
         <v>0.22720000000000001</v>
       </c>
       <c r="E18">
-        <f>B19-B18</f>
+        <f t="shared" si="0"/>
         <v>-0.27740000000000004</v>
       </c>
       <c r="G18">
         <v>-0.21829999999999999</v>
       </c>
       <c r="J18">
-        <f>G19-G18</f>
+        <f t="shared" si="1"/>
         <v>0.32850000000000001</v>
       </c>
       <c r="L18">
         <v>-0.48159999999999997</v>
       </c>
       <c r="O18">
-        <f>L19-L18</f>
+        <f t="shared" si="2"/>
         <v>0.31909999999999994</v>
       </c>
       <c r="Q18">
         <v>-0.81779999999999997</v>
       </c>
       <c r="T18">
-        <f>Q19-Q18</f>
+        <f t="shared" si="3"/>
         <v>-0.16139999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W18">
+        <f t="shared" si="4"/>
+        <v>1.000005064987173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1800</v>
       </c>
@@ -7345,32 +7429,36 @@
         <v>-5.0200000000000002E-2</v>
       </c>
       <c r="E19">
-        <f>B20-B19</f>
+        <f t="shared" si="0"/>
         <v>0.68669999999999998</v>
       </c>
       <c r="G19">
         <v>0.11020000000000001</v>
       </c>
       <c r="J19">
-        <f>G20-G19</f>
+        <f t="shared" si="1"/>
         <v>0.11419999999999998</v>
       </c>
       <c r="L19">
         <v>-0.16250000000000001</v>
       </c>
       <c r="O19">
-        <f>L20-L19</f>
+        <f t="shared" si="2"/>
         <v>-0.10419999999999999</v>
       </c>
       <c r="Q19">
         <v>-0.97919999999999996</v>
       </c>
       <c r="T19">
-        <f>Q20-Q19</f>
+        <f t="shared" si="3"/>
         <v>0.29120000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W19">
+        <f t="shared" si="4"/>
+        <v>0.99995148382309029</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1900</v>
       </c>
@@ -7378,32 +7466,36 @@
         <v>0.63649999999999995</v>
       </c>
       <c r="E20">
-        <f>B21-B20</f>
+        <f t="shared" si="0"/>
         <v>-0.13059999999999994</v>
       </c>
       <c r="G20">
         <v>0.22439999999999999</v>
       </c>
       <c r="J20">
-        <f>G21-G20</f>
+        <f t="shared" si="1"/>
         <v>-1.3499999999999984E-2</v>
       </c>
       <c r="L20">
         <v>-0.26669999999999999</v>
       </c>
       <c r="O20">
-        <f>L21-L20</f>
+        <f t="shared" si="2"/>
         <v>-6.7699999999999982E-2</v>
       </c>
       <c r="Q20">
         <v>-0.68799999999999994</v>
       </c>
       <c r="T20">
-        <f>Q21-Q20</f>
+        <f t="shared" si="3"/>
         <v>-7.8700000000000103E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W20">
+        <f t="shared" si="4"/>
+        <v>0.9999802498049648</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2000</v>
       </c>
@@ -7411,32 +7503,36 @@
         <v>0.50590000000000002</v>
       </c>
       <c r="E21">
-        <f>B22-B21</f>
+        <f t="shared" si="0"/>
         <v>-8.4100000000000008E-2</v>
       </c>
       <c r="G21">
         <v>0.2109</v>
       </c>
       <c r="J21">
-        <f>G22-G21</f>
+        <f t="shared" si="1"/>
         <v>-4.9000000000000155E-3</v>
       </c>
       <c r="L21">
         <v>-0.33439999999999998</v>
       </c>
       <c r="O21">
-        <f>L22-L21</f>
+        <f t="shared" si="2"/>
         <v>-6.6300000000000026E-2</v>
       </c>
       <c r="Q21">
         <v>-0.76670000000000005</v>
       </c>
       <c r="T21">
-        <f>Q22-Q21</f>
+        <f t="shared" si="3"/>
         <v>-2.0199999999999996E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W21">
+        <f t="shared" si="4"/>
+        <v>1.0000329344576608</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2100</v>
       </c>
@@ -7444,32 +7540,36 @@
         <v>0.42180000000000001</v>
       </c>
       <c r="E22">
-        <f>B23-B22</f>
+        <f t="shared" si="0"/>
         <v>-1.6000000000000014E-2</v>
       </c>
       <c r="G22">
         <v>0.20599999999999999</v>
       </c>
       <c r="J22">
-        <f>G23-G22</f>
+        <f t="shared" si="1"/>
         <v>-6.7299999999999999E-2</v>
       </c>
       <c r="L22">
         <v>-0.4007</v>
       </c>
       <c r="O22">
-        <f>L23-L22</f>
+        <f t="shared" si="2"/>
         <v>9.199999999999986E-3</v>
       </c>
       <c r="Q22">
         <v>-0.78690000000000004</v>
       </c>
       <c r="T22">
-        <f>Q23-Q22</f>
+        <f t="shared" si="3"/>
         <v>-2.7200000000000002E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W22">
+        <f t="shared" si="4"/>
+        <v>1.0000616680985228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2200</v>
       </c>
@@ -7477,32 +7577,36 @@
         <v>0.40579999999999999</v>
       </c>
       <c r="E23">
-        <f>B24-B23</f>
+        <f t="shared" si="0"/>
         <v>2.1000000000000019E-2</v>
       </c>
       <c r="G23">
         <v>0.13869999999999999</v>
       </c>
       <c r="J23">
-        <f>G24-G23</f>
+        <f t="shared" si="1"/>
         <v>-5.1799999999999985E-2</v>
       </c>
       <c r="L23">
         <v>-0.39150000000000001</v>
       </c>
       <c r="O23">
-        <f>L24-L23</f>
+        <f t="shared" si="2"/>
         <v>2.5999999999999912E-3</v>
       </c>
       <c r="Q23">
         <v>-0.81410000000000005</v>
       </c>
       <c r="T23">
-        <f>Q24-Q23</f>
+        <f t="shared" si="3"/>
         <v>2.2000000000000908E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W23">
+        <f t="shared" si="4"/>
+        <v>0.99997119458512407</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2300</v>
       </c>
@@ -7510,32 +7614,36 @@
         <v>0.42680000000000001</v>
       </c>
       <c r="E24">
-        <f>B25-B24</f>
+        <f t="shared" si="0"/>
         <v>0.10479999999999995</v>
       </c>
       <c r="G24">
         <v>8.6900000000000005E-2</v>
       </c>
       <c r="J24">
-        <f>G25-G24</f>
+        <f t="shared" si="1"/>
         <v>-0.2087</v>
       </c>
       <c r="L24">
         <v>-0.38890000000000002</v>
       </c>
       <c r="O24">
-        <f>L25-L24</f>
+        <f t="shared" si="2"/>
         <v>4.0100000000000025E-2</v>
       </c>
       <c r="Q24">
         <v>-0.81189999999999996</v>
       </c>
       <c r="T24">
-        <f>Q25-Q24</f>
+        <f t="shared" si="3"/>
         <v>4.9699999999999966E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W24">
+        <f t="shared" si="4"/>
+        <v>1.0000673327331515</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2400</v>
       </c>
@@ -7543,32 +7651,36 @@
         <v>0.53159999999999996</v>
       </c>
       <c r="E25">
-        <f>B26-B25</f>
+        <f t="shared" si="0"/>
         <v>0.13750000000000007</v>
       </c>
       <c r="G25">
         <v>-0.12180000000000001</v>
       </c>
       <c r="J25">
-        <f>G26-G25</f>
+        <f t="shared" si="1"/>
         <v>-0.2843</v>
       </c>
       <c r="L25">
         <v>-0.3488</v>
       </c>
       <c r="O25">
-        <f>L26-L25</f>
+        <f t="shared" si="2"/>
         <v>0.10289999999999999</v>
       </c>
       <c r="Q25">
         <v>-0.76219999999999999</v>
       </c>
       <c r="T25">
-        <f>Q26-Q25</f>
+        <f t="shared" si="3"/>
         <v>0.19040000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W25">
+        <f t="shared" si="4"/>
+        <v>1.0000220397571244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2500</v>
       </c>
@@ -7576,32 +7688,36 @@
         <v>0.66910000000000003</v>
       </c>
       <c r="E26">
-        <f>B27-B26</f>
+        <f t="shared" si="0"/>
         <v>8.4199999999999942E-2</v>
       </c>
       <c r="G26">
         <v>-0.40610000000000002</v>
       </c>
       <c r="J26">
-        <f>G27-G26</f>
+        <f t="shared" si="1"/>
         <v>-0.20350000000000001</v>
       </c>
       <c r="L26">
         <v>-0.24590000000000001</v>
       </c>
       <c r="O26">
-        <f>L27-L26</f>
+        <f t="shared" si="2"/>
         <v>0.16830000000000001</v>
       </c>
       <c r="Q26">
         <v>-0.57179999999999997</v>
       </c>
       <c r="T26">
-        <f>Q27-Q26</f>
+        <f t="shared" si="3"/>
         <v>0.33749999999999997</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W26">
+        <f t="shared" si="4"/>
+        <v>1.0000170348549069</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2600</v>
       </c>
@@ -7609,32 +7725,36 @@
         <v>0.75329999999999997</v>
       </c>
       <c r="E27">
-        <f>B28-B27</f>
+        <f t="shared" si="0"/>
         <v>-3.0599999999999961E-2</v>
       </c>
       <c r="G27">
         <v>-0.60960000000000003</v>
       </c>
       <c r="J27">
-        <f>G28-G27</f>
+        <f t="shared" si="1"/>
         <v>-6.5099999999999936E-2</v>
       </c>
       <c r="L27">
         <v>-7.7600000000000002E-2</v>
       </c>
       <c r="O27">
-        <f>L28-L27</f>
+        <f t="shared" si="2"/>
         <v>0.15410000000000001</v>
       </c>
       <c r="Q27">
         <v>-0.23430000000000001</v>
       </c>
       <c r="T27">
-        <f>Q28-Q27</f>
+        <f t="shared" si="3"/>
         <v>0.36330000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W27">
+        <f t="shared" si="4"/>
+        <v>0.99999564999053869</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2700</v>
       </c>
@@ -7642,32 +7762,36 @@
         <v>0.72270000000000001</v>
       </c>
       <c r="E28">
-        <f>B29-B28</f>
+        <f t="shared" si="0"/>
         <v>-4.390000000000005E-2</v>
       </c>
       <c r="G28">
         <v>-0.67469999999999997</v>
       </c>
       <c r="J28">
-        <f>G29-G28</f>
+        <f t="shared" si="1"/>
         <v>2.739999999999998E-2</v>
       </c>
       <c r="L28">
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="O28">
-        <f>L29-L28</f>
+        <f t="shared" si="2"/>
         <v>8.5099999999999995E-2</v>
       </c>
       <c r="Q28">
         <v>0.129</v>
       </c>
       <c r="T28">
-        <f>Q29-Q28</f>
+        <f t="shared" si="3"/>
         <v>0.17799999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W28">
+        <f t="shared" si="4"/>
+        <v>1.0000043149906903</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2800</v>
       </c>
@@ -7675,32 +7799,36 @@
         <v>0.67879999999999996</v>
       </c>
       <c r="E29">
-        <f>B30-B29</f>
+        <f t="shared" si="0"/>
         <v>-6.8199999999999927E-2</v>
       </c>
       <c r="G29">
         <v>-0.64729999999999999</v>
       </c>
       <c r="J29">
-        <f>G30-G29</f>
+        <f t="shared" si="1"/>
         <v>0.16499999999999998</v>
       </c>
       <c r="L29">
         <v>0.16159999999999999</v>
       </c>
       <c r="O29">
-        <f>L30-L29</f>
+        <f t="shared" si="2"/>
         <v>0.2326</v>
       </c>
       <c r="Q29">
         <v>0.307</v>
       </c>
       <c r="T29">
-        <f>Q30-Q29</f>
+        <f t="shared" si="3"/>
         <v>0.18209999999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W29">
+        <f t="shared" si="4"/>
+        <v>1.0000651428782026</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2900</v>
       </c>
@@ -7708,32 +7836,36 @@
         <v>0.61060000000000003</v>
       </c>
       <c r="E30">
-        <f>B31-B30</f>
+        <f t="shared" si="0"/>
         <v>-0.10750000000000004</v>
       </c>
       <c r="G30">
         <v>-0.48230000000000001</v>
       </c>
       <c r="J30">
-        <f>G31-G30</f>
+        <f t="shared" si="1"/>
         <v>9.1100000000000014E-2</v>
       </c>
       <c r="L30">
         <v>0.39419999999999999</v>
       </c>
       <c r="O30">
-        <f>L31-L30</f>
+        <f t="shared" si="2"/>
         <v>0.12970000000000004</v>
       </c>
       <c r="Q30">
         <v>0.48909999999999998</v>
       </c>
       <c r="T30">
-        <f>Q31-Q30</f>
+        <f t="shared" si="3"/>
         <v>7.6100000000000056E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W30">
+        <f t="shared" si="4"/>
+        <v>1.000029049578061</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3000</v>
       </c>
@@ -7741,32 +7873,36 @@
         <v>0.50309999999999999</v>
       </c>
       <c r="E31">
-        <f>B32-B31</f>
+        <f t="shared" si="0"/>
         <v>-0.11009999999999998</v>
       </c>
       <c r="G31">
         <v>-0.39119999999999999</v>
       </c>
       <c r="J31">
-        <f>G32-G31</f>
+        <f t="shared" si="1"/>
         <v>0.14229999999999998</v>
       </c>
       <c r="L31">
         <v>0.52390000000000003</v>
       </c>
       <c r="O31">
-        <f>L32-L31</f>
+        <f t="shared" si="2"/>
         <v>6.1199999999999921E-2</v>
       </c>
       <c r="Q31">
         <v>0.56520000000000004</v>
       </c>
       <c r="T31">
-        <f>Q32-Q31</f>
+        <f t="shared" si="3"/>
         <v>9.9099999999999966E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W31">
+        <f t="shared" si="4"/>
+        <v>1.0000346493997094</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3100</v>
       </c>
@@ -7774,32 +7910,36 @@
         <v>0.39300000000000002</v>
       </c>
       <c r="E32">
-        <f>B33-B32</f>
+        <f t="shared" si="0"/>
         <v>-0.18240000000000001</v>
       </c>
       <c r="G32">
         <v>-0.24890000000000001</v>
       </c>
       <c r="J32">
-        <f>G33-G32</f>
+        <f t="shared" si="1"/>
         <v>0.1197</v>
       </c>
       <c r="L32">
         <v>0.58509999999999995</v>
       </c>
       <c r="O32">
-        <f>L33-L32</f>
+        <f t="shared" si="2"/>
         <v>6.1600000000000099E-2</v>
       </c>
       <c r="Q32">
         <v>0.6643</v>
       </c>
       <c r="T32">
-        <f>Q33-Q32</f>
+        <f t="shared" si="3"/>
         <v>5.7300000000000018E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W32">
+        <f t="shared" si="4"/>
+        <v>1.00001835483155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3200</v>
       </c>
@@ -7807,32 +7947,36 @@
         <v>0.21060000000000001</v>
       </c>
       <c r="E33">
-        <f>B34-B33</f>
+        <f t="shared" si="0"/>
         <v>-0.24880000000000002</v>
       </c>
       <c r="G33">
         <v>-0.12920000000000001</v>
       </c>
       <c r="J33">
-        <f>G34-G33</f>
+        <f t="shared" si="1"/>
         <v>0.1431</v>
       </c>
       <c r="L33">
         <v>0.64670000000000005</v>
       </c>
       <c r="O33">
-        <f>L34-L33</f>
+        <f t="shared" si="2"/>
         <v>-1.3800000000000034E-2</v>
       </c>
       <c r="Q33">
         <v>0.72160000000000002</v>
       </c>
       <c r="T33">
-        <f>Q34-Q33</f>
+        <f t="shared" si="3"/>
         <v>5.149999999999999E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W33">
+        <f t="shared" si="4"/>
+        <v>0.99998622490512346</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3300</v>
       </c>
@@ -7840,32 +7984,36 @@
         <v>-3.8199999999999998E-2</v>
       </c>
       <c r="E34">
-        <f>B35-B34</f>
+        <f t="shared" si="0"/>
         <v>-0.25600000000000001</v>
       </c>
       <c r="G34">
         <v>1.3899999999999999E-2</v>
       </c>
       <c r="J34">
-        <f>G35-G34</f>
+        <f t="shared" si="1"/>
         <v>0.1676</v>
       </c>
       <c r="L34">
         <v>0.63290000000000002</v>
       </c>
       <c r="O34">
-        <f>L35-L34</f>
+        <f t="shared" si="2"/>
         <v>-0.125</v>
       </c>
       <c r="Q34">
         <v>0.77310000000000001</v>
       </c>
       <c r="T34">
-        <f>Q35-Q34</f>
+        <f t="shared" si="3"/>
         <v>1.5900000000000025E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W34">
+        <f t="shared" si="4"/>
+        <v>0.99994923371139199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3400</v>
       </c>
@@ -7873,32 +8021,36 @@
         <v>-0.29420000000000002</v>
       </c>
       <c r="E35">
-        <f>B36-B35</f>
+        <f t="shared" ref="E35:E54" si="5">B36-B35</f>
         <v>-0.23549999999999993</v>
       </c>
       <c r="G35">
         <v>0.18149999999999999</v>
       </c>
       <c r="J35">
-        <f>G36-G35</f>
+        <f t="shared" ref="J35:J54" si="6">G36-G35</f>
         <v>7.9699999999999993E-2</v>
       </c>
       <c r="L35">
         <v>0.50790000000000002</v>
       </c>
       <c r="O35">
-        <f>L36-L35</f>
+        <f t="shared" ref="O35:O54" si="7">L36-L35</f>
         <v>-0.188</v>
       </c>
       <c r="Q35">
         <v>0.78900000000000003</v>
       </c>
       <c r="T35">
-        <f>Q36-Q35</f>
+        <f t="shared" ref="T35:T54" si="8">Q36-Q35</f>
         <v>-4.8200000000000021E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W35">
+        <f t="shared" si="4"/>
+        <v>0.99998964994643824</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3500</v>
       </c>
@@ -7906,32 +8058,36 @@
         <v>-0.52969999999999995</v>
       </c>
       <c r="E36">
-        <f>B37-B36</f>
+        <f t="shared" si="5"/>
         <v>-0.11130000000000007</v>
       </c>
       <c r="G36">
         <v>0.26119999999999999</v>
       </c>
       <c r="J36">
-        <f>G37-G36</f>
+        <f t="shared" si="6"/>
         <v>-7.6600000000000001E-2</v>
       </c>
       <c r="L36">
         <v>0.31990000000000002</v>
       </c>
       <c r="O36">
-        <f>L37-L36</f>
+        <f t="shared" si="7"/>
         <v>-0.17870000000000003</v>
       </c>
       <c r="Q36">
         <v>0.74080000000000001</v>
       </c>
       <c r="T36">
-        <f>Q37-Q36</f>
+        <f t="shared" si="8"/>
         <v>-9.299999999999975E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W36">
+        <f t="shared" si="4"/>
+        <v>0.99996408935521286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3600</v>
       </c>
@@ -7939,32 +8095,36 @@
         <v>-0.64100000000000001</v>
       </c>
       <c r="E37">
-        <f>B38-B37</f>
+        <f t="shared" si="5"/>
         <v>-3.3100000000000018E-2</v>
       </c>
       <c r="G37">
         <v>0.18459999999999999</v>
       </c>
       <c r="J37">
-        <f>G38-G37</f>
+        <f t="shared" si="6"/>
         <v>-9.8799999999999985E-2</v>
       </c>
       <c r="L37">
         <v>0.14119999999999999</v>
       </c>
       <c r="O37">
-        <f>L38-L37</f>
+        <f t="shared" si="7"/>
         <v>-0.13469999999999999</v>
       </c>
       <c r="Q37">
         <v>0.73150000000000004</v>
       </c>
       <c r="T37">
-        <f>Q38-Q37</f>
+        <f t="shared" si="8"/>
         <v>2.0999999999999908E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W37">
+        <f t="shared" si="4"/>
+        <v>0.99999392498154704</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3700</v>
       </c>
@@ -7972,32 +8132,36 @@
         <v>-0.67410000000000003</v>
       </c>
       <c r="E38">
-        <f>B39-B38</f>
+        <f t="shared" si="5"/>
         <v>5.4000000000000714E-3</v>
       </c>
       <c r="G38">
         <v>8.5800000000000001E-2</v>
       </c>
       <c r="J38">
-        <f>G39-G38</f>
+        <f t="shared" si="6"/>
         <v>-9.8900000000000002E-2</v>
       </c>
       <c r="L38">
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="O38">
-        <f>L39-L38</f>
+        <f t="shared" si="7"/>
         <v>-0.27010000000000001</v>
       </c>
       <c r="Q38">
         <v>0.73360000000000003</v>
       </c>
       <c r="T38">
-        <f>Q39-Q38</f>
+        <f t="shared" si="8"/>
         <v>-3.8499999999999979E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W38">
+        <f t="shared" si="4"/>
+        <v>0.99999182996662528</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3800</v>
       </c>
@@ -8005,32 +8169,36 @@
         <v>-0.66869999999999996</v>
       </c>
       <c r="E39">
-        <f>B40-B39</f>
+        <f t="shared" si="5"/>
         <v>3.6999999999999922E-2</v>
       </c>
       <c r="G39">
         <v>-1.3100000000000001E-2</v>
       </c>
       <c r="J39">
-        <f>G40-G39</f>
+        <f t="shared" si="6"/>
         <v>-0.11649999999999999</v>
       </c>
       <c r="L39">
         <v>-0.2636</v>
       </c>
       <c r="O39">
-        <f>L40-L39</f>
+        <f t="shared" si="7"/>
         <v>-0.20589999999999997</v>
       </c>
       <c r="Q39">
         <v>0.69510000000000005</v>
       </c>
       <c r="T39">
-        <f>Q40-Q39</f>
+        <f t="shared" si="8"/>
         <v>-9.2000000000000082E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W39">
+        <f t="shared" si="4"/>
+        <v>0.99999013495134037</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3900</v>
       </c>
@@ -8038,32 +8206,36 @@
         <v>-0.63170000000000004</v>
       </c>
       <c r="E40">
-        <f>B41-B40</f>
+        <f t="shared" si="5"/>
         <v>-4.2999999999999705E-3</v>
       </c>
       <c r="G40">
         <v>-0.12959999999999999</v>
       </c>
       <c r="J40">
-        <f>G41-G40</f>
+        <f t="shared" si="6"/>
         <v>-5.3900000000000003E-2</v>
       </c>
       <c r="L40">
         <v>-0.46949999999999997</v>
       </c>
       <c r="O40">
-        <f>L41-L40</f>
+        <f t="shared" si="7"/>
         <v>-0.18030000000000007</v>
       </c>
       <c r="Q40">
         <v>0.60309999999999997</v>
       </c>
       <c r="T40">
-        <f>Q41-Q40</f>
+        <f t="shared" si="8"/>
         <v>-0.22939999999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W40">
+        <f t="shared" si="4"/>
+        <v>1.0000004549998964</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4000</v>
       </c>
@@ -8071,32 +8243,36 @@
         <v>-0.63600000000000001</v>
       </c>
       <c r="E41">
-        <f>B42-B41</f>
+        <f t="shared" si="5"/>
         <v>-2.3699999999999943E-2</v>
       </c>
       <c r="G41">
         <v>-0.1835</v>
       </c>
       <c r="J41">
-        <f>G42-G41</f>
+        <f t="shared" si="6"/>
         <v>7.46E-2</v>
       </c>
       <c r="L41">
         <v>-0.64980000000000004</v>
       </c>
       <c r="O41">
-        <f>L42-L41</f>
+        <f t="shared" si="7"/>
         <v>-8.8899999999999979E-2</v>
       </c>
       <c r="Q41">
         <v>0.37369999999999998</v>
       </c>
       <c r="T41">
-        <f>Q42-Q41</f>
+        <f t="shared" si="8"/>
         <v>-0.28809999999999997</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W41">
+        <f t="shared" si="4"/>
+        <v>1.0000299895503135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>4100</v>
       </c>
@@ -8104,32 +8280,36 @@
         <v>-0.65969999999999995</v>
       </c>
       <c r="E42">
-        <f>B43-B42</f>
+        <f t="shared" si="5"/>
         <v>9.5999999999999419E-3</v>
       </c>
       <c r="G42">
         <v>-0.1089</v>
       </c>
       <c r="J42">
-        <f>G43-G42</f>
+        <f t="shared" si="6"/>
         <v>7.6600000000000001E-2</v>
       </c>
       <c r="L42">
         <v>-0.73870000000000002</v>
       </c>
       <c r="O42">
-        <f>L43-L42</f>
+        <f t="shared" si="7"/>
         <v>-1.8299999999999983E-2</v>
       </c>
       <c r="Q42">
         <v>8.5599999999999996E-2</v>
       </c>
       <c r="T42">
-        <f>Q43-Q42</f>
+        <f t="shared" si="8"/>
         <v>-0.1431</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W42">
+        <f t="shared" si="4"/>
+        <v>1.0000341744160546</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>4200</v>
       </c>
@@ -8137,32 +8317,36 @@
         <v>-0.65010000000000001</v>
       </c>
       <c r="E43">
-        <f>B44-B43</f>
+        <f t="shared" si="5"/>
         <v>5.5599999999999983E-2</v>
       </c>
       <c r="G43">
         <v>-3.2300000000000002E-2</v>
       </c>
       <c r="J43">
-        <f>G44-G43</f>
+        <f t="shared" si="6"/>
         <v>3.3600000000000005E-2</v>
       </c>
       <c r="L43">
         <v>-0.75700000000000001</v>
       </c>
       <c r="O43">
-        <f>L44-L43</f>
+        <f t="shared" si="7"/>
         <v>-2.8200000000000003E-2</v>
       </c>
       <c r="Q43">
         <v>-5.7500000000000002E-2</v>
       </c>
       <c r="T43">
-        <f>Q44-Q43</f>
+        <f t="shared" si="8"/>
         <v>-0.1157</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W43">
+        <f t="shared" si="4"/>
+        <v>1.0000142748981138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>4300</v>
       </c>
@@ -8170,32 +8354,36 @@
         <v>-0.59450000000000003</v>
       </c>
       <c r="E44">
-        <f>B45-B44</f>
+        <f t="shared" si="5"/>
         <v>6.7800000000000082E-2</v>
       </c>
       <c r="G44">
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="J44">
-        <f>G45-G44</f>
+        <f t="shared" si="6"/>
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="L44">
         <v>-0.78520000000000001</v>
       </c>
       <c r="O44">
-        <f>L45-L44</f>
+        <f t="shared" si="7"/>
         <v>-2.9799999999999938E-2</v>
       </c>
       <c r="Q44">
         <v>-0.17319999999999999</v>
       </c>
       <c r="T44">
-        <f>Q45-Q44</f>
+        <f t="shared" si="8"/>
         <v>-6.7299999999999999E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W44">
+        <f t="shared" si="4"/>
+        <v>0.99998460988157212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4400</v>
       </c>
@@ -8203,32 +8391,36 @@
         <v>-0.52669999999999995</v>
       </c>
       <c r="E45">
-        <f>B46-B45</f>
+        <f t="shared" si="5"/>
         <v>4.0699999999999958E-2</v>
       </c>
       <c r="G45">
         <v>2.2599999999999999E-2</v>
       </c>
       <c r="J45">
-        <f>G46-G45</f>
+        <f t="shared" si="6"/>
         <v>3.7699999999999997E-2</v>
       </c>
       <c r="L45">
         <v>-0.81499999999999995</v>
       </c>
       <c r="O45">
-        <f>L46-L45</f>
+        <f t="shared" si="7"/>
         <v>-1.2000000000000011E-2</v>
       </c>
       <c r="Q45">
         <v>-0.24049999999999999</v>
       </c>
       <c r="T45">
-        <f>Q46-Q45</f>
+        <f t="shared" si="8"/>
         <v>-3.570000000000001E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W45">
+        <f t="shared" si="4"/>
+        <v>0.99999444998459863</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>4500</v>
       </c>
@@ -8236,32 +8428,36 @@
         <v>-0.48599999999999999</v>
       </c>
       <c r="E46">
-        <f>B47-B46</f>
+        <f t="shared" si="5"/>
         <v>0.20710000000000001</v>
       </c>
       <c r="G46">
         <v>6.0299999999999999E-2</v>
       </c>
       <c r="J46">
-        <f>G47-G46</f>
+        <f t="shared" si="6"/>
         <v>1.8999999999999996E-2</v>
       </c>
       <c r="L46">
         <v>-0.82699999999999996</v>
       </c>
       <c r="O46">
-        <f>L47-L46</f>
+        <f t="shared" si="7"/>
         <v>-5.3100000000000036E-2</v>
       </c>
       <c r="Q46">
         <v>-0.2762</v>
       </c>
       <c r="T46">
-        <f>Q47-Q46</f>
+        <f t="shared" si="8"/>
         <v>-9.98E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W46">
+        <f t="shared" si="4"/>
+        <v>1.0000237647176191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4600</v>
       </c>
@@ -8269,32 +8465,36 @@
         <v>-0.27889999999999998</v>
       </c>
       <c r="E47">
-        <f>B48-B47</f>
+        <f t="shared" si="5"/>
         <v>0.23149999999999998</v>
       </c>
       <c r="G47">
         <v>7.9299999999999995E-2</v>
       </c>
       <c r="J47">
-        <f>G48-G47</f>
+        <f t="shared" si="6"/>
         <v>-5.0699999999999995E-2</v>
       </c>
       <c r="L47">
         <v>-0.88009999999999999</v>
       </c>
       <c r="O47">
-        <f>L48-L47</f>
+        <f t="shared" si="7"/>
         <v>4.1200000000000014E-2</v>
       </c>
       <c r="Q47">
         <v>-0.376</v>
       </c>
       <c r="T47">
-        <f>Q48-Q47</f>
+        <f t="shared" si="8"/>
         <v>-0.16549999999999998</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W47">
+        <f t="shared" si="4"/>
+        <v>1.0000128549173757</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>4700</v>
       </c>
@@ -8302,32 +8502,36 @@
         <v>-4.7399999999999998E-2</v>
       </c>
       <c r="E48">
-        <f>B49-B48</f>
+        <f t="shared" si="5"/>
         <v>0.26990000000000003</v>
       </c>
       <c r="G48">
         <v>2.86E-2</v>
       </c>
       <c r="J48">
-        <f>G49-G48</f>
+        <f t="shared" si="6"/>
         <v>-1.0100000000000001E-2</v>
       </c>
       <c r="L48">
         <v>-0.83889999999999998</v>
       </c>
       <c r="O48">
-        <f>L49-L48</f>
+        <f t="shared" si="7"/>
         <v>8.9600000000000013E-2</v>
       </c>
       <c r="Q48">
         <v>-0.54149999999999998</v>
       </c>
       <c r="T48">
-        <f>Q49-Q48</f>
+        <f t="shared" si="8"/>
         <v>-8.2000000000000073E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W48">
+        <f t="shared" si="4"/>
+        <v>1.0000200897982001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>4800</v>
       </c>
@@ -8335,32 +8539,36 @@
         <v>0.2225</v>
       </c>
       <c r="E49">
-        <f>B50-B49</f>
+        <f t="shared" si="5"/>
         <v>0.21159999999999998</v>
       </c>
       <c r="G49">
         <v>1.8499999999999999E-2</v>
       </c>
       <c r="J49">
-        <f>G50-G49</f>
+        <f t="shared" si="6"/>
         <v>2.9700000000000001E-2</v>
       </c>
       <c r="L49">
         <v>-0.74929999999999997</v>
       </c>
       <c r="O49">
-        <f>L50-L49</f>
+        <f t="shared" si="7"/>
         <v>0.17889999999999995</v>
       </c>
       <c r="Q49">
         <v>-0.62350000000000005</v>
       </c>
       <c r="T49">
-        <f>Q50-Q49</f>
+        <f t="shared" si="8"/>
         <v>-7.2099999999999942E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W49">
+        <f t="shared" si="4"/>
+        <v>1.0000256196718162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>4900</v>
       </c>
@@ -8368,32 +8576,36 @@
         <v>0.43409999999999999</v>
       </c>
       <c r="E50">
-        <f>B51-B50</f>
+        <f t="shared" si="5"/>
         <v>0.14510000000000006</v>
       </c>
       <c r="G50">
         <v>4.82E-2</v>
       </c>
       <c r="J50">
-        <f>G51-G50</f>
+        <f t="shared" si="6"/>
         <v>7.5300000000000006E-2</v>
       </c>
       <c r="L50">
         <v>-0.57040000000000002</v>
       </c>
       <c r="O50">
-        <f>L51-L50</f>
+        <f t="shared" si="7"/>
         <v>0.21679999999999999</v>
       </c>
       <c r="Q50">
         <v>-0.6956</v>
       </c>
       <c r="T50">
-        <f>Q51-Q50</f>
+        <f t="shared" si="8"/>
         <v>-2.849999999999997E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W50">
+        <f t="shared" si="4"/>
+        <v>0.99999078495754157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>5000</v>
       </c>
@@ -8401,32 +8613,36 @@
         <v>0.57920000000000005</v>
       </c>
       <c r="E51">
-        <f>B52-B51</f>
+        <f t="shared" si="5"/>
         <v>9.9599999999999911E-2</v>
       </c>
       <c r="G51">
         <v>0.1235</v>
       </c>
       <c r="J51">
-        <f>G52-G51</f>
+        <f t="shared" si="6"/>
         <v>-0.14130000000000001</v>
       </c>
       <c r="L51">
         <v>-0.35360000000000003</v>
       </c>
       <c r="O51">
-        <f>L52-L51</f>
+        <f t="shared" si="7"/>
         <v>0.24860000000000004</v>
       </c>
       <c r="Q51">
         <v>-0.72409999999999997</v>
       </c>
       <c r="T51">
-        <f>Q52-Q51</f>
+        <f t="shared" si="8"/>
         <v>-2.5000000000000577E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W51">
+        <f t="shared" si="4"/>
+        <v>1.0000393292266059</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>5100</v>
       </c>
@@ -8434,32 +8650,36 @@
         <v>0.67879999999999996</v>
       </c>
       <c r="E52">
-        <f>B53-B52</f>
+        <f t="shared" si="5"/>
         <v>8.3300000000000041E-2</v>
       </c>
       <c r="G52">
         <v>-1.78E-2</v>
       </c>
       <c r="J52">
-        <f>G53-G52</f>
+        <f t="shared" si="6"/>
         <v>-0.13789999999999999</v>
       </c>
       <c r="L52">
         <v>-0.105</v>
       </c>
       <c r="O52">
-        <f>L53-L52</f>
+        <f t="shared" si="7"/>
         <v>0.15589999999999998</v>
       </c>
       <c r="Q52">
         <v>-0.72660000000000002</v>
       </c>
       <c r="T52">
-        <f>Q53-Q52</f>
+        <f t="shared" si="8"/>
         <v>0.10020000000000007</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W52">
+        <f t="shared" si="4"/>
+        <v>1.0000294195672446</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>5200</v>
       </c>
@@ -8467,32 +8687,36 @@
         <v>0.7621</v>
       </c>
       <c r="E53">
-        <f>B54-B53</f>
+        <f t="shared" si="5"/>
         <v>5.5699999999999972E-2</v>
       </c>
       <c r="G53">
         <v>-0.15570000000000001</v>
       </c>
       <c r="J53">
-        <f>G54-G53</f>
+        <f t="shared" si="6"/>
         <v>-0.20119999999999999</v>
       </c>
       <c r="L53">
         <v>5.0900000000000001E-2</v>
       </c>
       <c r="O53">
-        <f>L54-L53</f>
+        <f t="shared" si="7"/>
         <v>0.15129999999999999</v>
       </c>
       <c r="Q53">
         <v>-0.62639999999999996</v>
       </c>
       <c r="T53">
-        <f>Q54-Q53</f>
+        <f t="shared" si="8"/>
         <v>0.22279999999999994</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W53">
+        <f t="shared" si="4"/>
+        <v>1.0000033349944391</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>5300</v>
       </c>
@@ -8500,32 +8724,36 @@
         <v>0.81779999999999997</v>
       </c>
       <c r="E54">
-        <f>B55-B54</f>
+        <f t="shared" si="5"/>
         <v>-9.5999999999999419E-3</v>
       </c>
       <c r="G54">
         <v>-0.3569</v>
       </c>
       <c r="J54">
-        <f>G55-G54</f>
+        <f t="shared" si="6"/>
         <v>-0.11309999999999998</v>
       </c>
       <c r="L54">
         <v>0.20219999999999999</v>
       </c>
       <c r="O54">
-        <f>L55-L54</f>
+        <f t="shared" si="7"/>
         <v>0.15250000000000002</v>
       </c>
       <c r="Q54">
         <v>-0.40360000000000001</v>
       </c>
       <c r="T54">
-        <f>Q55-Q54</f>
+        <f t="shared" si="8"/>
         <v>0.41950000000000004</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W54">
+        <f t="shared" si="4"/>
+        <v>0.99997612471498543</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>5400</v>
       </c>
@@ -8533,32 +8761,36 @@
         <v>0.80820000000000003</v>
       </c>
       <c r="E55">
-        <f t="shared" ref="E55:E118" si="0">B56-B55</f>
+        <f t="shared" ref="E55:E118" si="9">B56-B55</f>
         <v>-0.11050000000000004</v>
       </c>
       <c r="G55">
         <v>-0.47</v>
       </c>
       <c r="J55">
-        <f t="shared" ref="J55:J118" si="1">G56-G55</f>
+        <f t="shared" ref="J55:J118" si="10">G56-G55</f>
         <v>-2.4400000000000033E-2</v>
       </c>
       <c r="L55">
         <v>0.35470000000000002</v>
       </c>
       <c r="O55">
-        <f t="shared" ref="O55:O118" si="2">L56-L55</f>
+        <f t="shared" ref="O55:O118" si="11">L56-L55</f>
         <v>4.0300000000000002E-2</v>
       </c>
       <c r="Q55">
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="T55">
-        <f t="shared" ref="T55:T118" si="3">Q56-Q55</f>
+        <f t="shared" ref="T55:T118" si="12">Q56-Q55</f>
         <v>0.31989999999999996</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W55">
+        <f t="shared" si="4"/>
+        <v>1.0000760671068978</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>5500</v>
       </c>
@@ -8566,32 +8798,36 @@
         <v>0.69769999999999999</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>-0.28070000000000001</v>
       </c>
       <c r="G56">
         <v>-0.49440000000000001</v>
       </c>
       <c r="J56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>-6.5700000000000036E-2</v>
       </c>
       <c r="L56">
         <v>0.39500000000000002</v>
       </c>
       <c r="O56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>7.4799999999999978E-2</v>
       </c>
       <c r="Q56">
         <v>0.33579999999999999</v>
       </c>
       <c r="T56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.20430000000000004</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W56">
+        <f t="shared" si="4"/>
+        <v>1.0000016449986471</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>5600</v>
       </c>
@@ -8599,32 +8835,36 @@
         <v>0.41699999999999998</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>-0.37539999999999996</v>
       </c>
       <c r="G57">
         <v>-0.56010000000000004</v>
       </c>
       <c r="J57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>4.2000000000000037E-2</v>
       </c>
       <c r="L57">
         <v>0.4698</v>
       </c>
       <c r="O57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>5.3499999999999992E-2</v>
       </c>
       <c r="Q57">
         <v>0.54010000000000002</v>
       </c>
       <c r="T57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.13519999999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W57">
+        <f t="shared" si="4"/>
+        <v>1.0000105299445601</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>5700</v>
       </c>
@@ -8632,32 +8872,36 @@
         <v>4.1599999999999998E-2</v>
       </c>
       <c r="E58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>-0.15179999999999999</v>
       </c>
       <c r="G58">
         <v>-0.5181</v>
       </c>
       <c r="J58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>8.3100000000000007E-2</v>
       </c>
       <c r="L58">
         <v>0.52329999999999999</v>
       </c>
       <c r="O58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-5.7000000000000384E-3</v>
       </c>
       <c r="Q58">
         <v>0.67530000000000001</v>
       </c>
       <c r="T58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>5.3200000000000025E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W58">
+        <f t="shared" si="4"/>
+        <v>1.0000155748787116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>5800</v>
       </c>
@@ -8665,32 +8909,36 @@
         <v>-0.11020000000000001</v>
       </c>
       <c r="E59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>-0.13650000000000001</v>
       </c>
       <c r="G59">
         <v>-0.435</v>
       </c>
       <c r="J59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.11759999999999998</v>
       </c>
       <c r="L59">
         <v>0.51759999999999995</v>
       </c>
       <c r="O59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-8.8499999999999968E-2</v>
       </c>
       <c r="Q59">
         <v>0.72850000000000004</v>
       </c>
       <c r="T59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>8.0299999999999927E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W59">
+        <f t="shared" si="4"/>
+        <v>0.99999552498998712</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>5900</v>
       </c>
@@ -8698,32 +8946,36 @@
         <v>-0.2467</v>
       </c>
       <c r="E60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>-2.8999999999999859E-3</v>
       </c>
       <c r="G60">
         <v>-0.31740000000000002</v>
       </c>
       <c r="J60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>9.5900000000000013E-2</v>
       </c>
       <c r="L60">
         <v>0.42909999999999998</v>
       </c>
       <c r="O60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-9.7099999999999964E-2</v>
       </c>
       <c r="Q60">
         <v>0.80879999999999996</v>
       </c>
       <c r="T60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>7.350000000000001E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W60">
+        <f t="shared" si="4"/>
+        <v>0.99994394842911072</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>6000</v>
       </c>
@@ -8731,32 +8983,36 @@
         <v>-0.24959999999999999</v>
       </c>
       <c r="E61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>-2.7400000000000035E-2</v>
       </c>
       <c r="G61">
         <v>-0.2215</v>
       </c>
       <c r="J61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>9.3299999999999994E-2</v>
       </c>
       <c r="L61">
         <v>0.33200000000000002</v>
       </c>
       <c r="O61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-8.2400000000000029E-2</v>
       </c>
       <c r="Q61">
         <v>0.88229999999999997</v>
       </c>
       <c r="T61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>3.6700000000000066E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W61">
+        <f t="shared" si="4"/>
+        <v>1.0000198498029926</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>6100</v>
       </c>
@@ -8764,32 +9020,36 @@
         <v>-0.27700000000000002</v>
       </c>
       <c r="E62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>-7.3499999999999954E-2</v>
       </c>
       <c r="G62">
         <v>-0.12820000000000001</v>
       </c>
       <c r="J62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>4.7000000000000014E-2</v>
       </c>
       <c r="L62">
         <v>0.24959999999999999</v>
       </c>
       <c r="O62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-5.0099999999999978E-2</v>
       </c>
       <c r="Q62">
         <v>0.91900000000000004</v>
       </c>
       <c r="T62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-7.5000000000000622E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W62">
+        <f t="shared" si="4"/>
+        <v>1.0000126999193562</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>6200</v>
       </c>
@@ -8797,32 +9057,36 @@
         <v>-0.35049999999999998</v>
       </c>
       <c r="E63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>-3.0600000000000016E-2</v>
       </c>
       <c r="G63">
         <v>-8.1199999999999994E-2</v>
       </c>
       <c r="J63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>8.6099999999999996E-2</v>
       </c>
       <c r="L63">
         <v>0.19950000000000001</v>
       </c>
       <c r="O63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-6.4200000000000007E-2</v>
       </c>
       <c r="Q63">
         <v>0.91149999999999998</v>
       </c>
       <c r="T63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>3.0999999999999917E-3</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W63">
+        <f t="shared" si="4"/>
+        <v>1.0000380942744131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>6300</v>
       </c>
@@ -8830,32 +9094,36 @@
         <v>-0.38109999999999999</v>
       </c>
       <c r="E64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>-6.7900000000000016E-2</v>
       </c>
       <c r="G64">
         <v>4.8999999999999998E-3</v>
       </c>
       <c r="J64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.113</v>
       </c>
       <c r="L64">
         <v>0.1353</v>
       </c>
       <c r="O64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-4.6200000000000005E-2</v>
       </c>
       <c r="Q64">
         <v>0.91459999999999997</v>
       </c>
       <c r="T64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-3.3399999999999985E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W64">
+        <f t="shared" si="4"/>
+        <v>1.0000302345429362</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>6400</v>
       </c>
@@ -8863,32 +9131,36 @@
         <v>-0.44900000000000001</v>
       </c>
       <c r="E65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>-3.5999999999999921E-3</v>
       </c>
       <c r="G65">
         <v>0.1179</v>
       </c>
       <c r="J65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.27550000000000002</v>
       </c>
       <c r="L65">
         <v>8.9099999999999999E-2</v>
       </c>
       <c r="O65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>1.0800000000000004E-2</v>
       </c>
       <c r="Q65">
         <v>0.88119999999999998</v>
       </c>
       <c r="T65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-8.7299999999999933E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W65">
+        <f t="shared" si="4"/>
+        <v>0.99997682973156932</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>6500</v>
       </c>
@@ -8896,32 +9168,36 @@
         <v>-0.4526</v>
       </c>
       <c r="E66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>-3.2399999999999984E-2</v>
       </c>
       <c r="G66">
         <v>0.39340000000000003</v>
       </c>
       <c r="J66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.31280000000000002</v>
       </c>
       <c r="L66">
         <v>9.9900000000000003E-2</v>
       </c>
       <c r="O66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-0.1014</v>
       </c>
       <c r="Q66">
         <v>0.79390000000000005</v>
       </c>
       <c r="T66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-0.2782</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W66">
+        <f t="shared" si="4"/>
+        <v>0.99993376780664833</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>6600</v>
       </c>
@@ -8929,32 +9205,36 @@
         <v>-0.48499999999999999</v>
       </c>
       <c r="E67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>-5.2699999999999969E-2</v>
       </c>
       <c r="G67">
         <v>0.70620000000000005</v>
       </c>
       <c r="J67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.11249999999999993</v>
       </c>
       <c r="L67">
         <v>-1.5E-3</v>
       </c>
       <c r="O67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-0.17199999999999999</v>
       </c>
       <c r="Q67">
         <v>0.51570000000000005</v>
       </c>
       <c r="T67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-0.41340000000000005</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W67">
+        <f t="shared" ref="W67:W130" si="13">SQRT(POWER(B67,2)+POWER(G67,2)+POWER(L67,2)+POWER(Q67,2))</f>
+        <v>0.99994608854677769</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>6700</v>
       </c>
@@ -8962,32 +9242,36 @@
         <v>-0.53769999999999996</v>
       </c>
       <c r="E68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>9.9499999999999977E-2</v>
       </c>
       <c r="G68">
         <v>0.81869999999999998</v>
       </c>
       <c r="J68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>1.9399999999999973E-2</v>
       </c>
       <c r="L68">
         <v>-0.17349999999999999</v>
       </c>
       <c r="O68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-7.4300000000000005E-2</v>
       </c>
       <c r="Q68">
         <v>0.1023</v>
       </c>
       <c r="T68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-0.31259999999999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W68">
+        <f t="shared" si="13"/>
+        <v>0.99997925978492164</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>6800</v>
       </c>
@@ -8995,32 +9279,36 @@
         <v>-0.43819999999999998</v>
       </c>
       <c r="E69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>0.12569999999999998</v>
       </c>
       <c r="G69">
         <v>0.83809999999999996</v>
       </c>
       <c r="J69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>-7.6199999999999934E-2</v>
       </c>
       <c r="L69">
         <v>-0.24779999999999999</v>
       </c>
       <c r="O69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-6.3799999999999996E-2</v>
       </c>
       <c r="Q69">
         <v>-0.21029999999999999</v>
       </c>
       <c r="T69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-0.26380000000000003</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W69">
+        <f t="shared" si="13"/>
+        <v>1.0000308895229186</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>6900</v>
       </c>
@@ -9028,32 +9316,36 @@
         <v>-0.3125</v>
       </c>
       <c r="E70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>0.12740000000000001</v>
       </c>
       <c r="G70">
         <v>0.76190000000000002</v>
       </c>
       <c r="J70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>-0.16190000000000004</v>
       </c>
       <c r="L70">
         <v>-0.31159999999999999</v>
       </c>
       <c r="O70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-6.0200000000000031E-2</v>
       </c>
       <c r="Q70">
         <v>-0.47410000000000002</v>
       </c>
       <c r="T70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-0.20959999999999995</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W70">
+        <f t="shared" si="13"/>
+        <v>1.000006614978121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>7000</v>
       </c>
@@ -9061,32 +9353,36 @@
         <v>-0.18509999999999999</v>
       </c>
       <c r="E71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>0.11329999999999998</v>
       </c>
       <c r="G71">
         <v>0.6</v>
       </c>
       <c r="J71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>-0.34429999999999999</v>
       </c>
       <c r="L71">
         <v>-0.37180000000000002</v>
       </c>
       <c r="O71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-7.9199999999999993E-2</v>
       </c>
       <c r="Q71">
         <v>-0.68369999999999997</v>
       </c>
       <c r="T71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-0.16839999999999999</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W71">
+        <f t="shared" si="13"/>
+        <v>0.99997146959300787</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>7100</v>
       </c>
@@ -9094,32 +9390,36 @@
         <v>-7.1800000000000003E-2</v>
       </c>
       <c r="E72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>8.2500000000000004E-2</v>
       </c>
       <c r="G72">
         <v>0.25569999999999998</v>
       </c>
       <c r="J72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>-0.14849999999999997</v>
       </c>
       <c r="L72">
         <v>-0.45100000000000001</v>
       </c>
       <c r="O72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.8799999999999992E-2</v>
       </c>
       <c r="Q72">
         <v>-0.85209999999999997</v>
       </c>
       <c r="T72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-4.7900000000000054E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W72">
+        <f t="shared" si="13"/>
+        <v>1.0000065699784177</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>7200</v>
       </c>
@@ -9127,32 +9427,36 @@
         <v>1.0699999999999999E-2</v>
       </c>
       <c r="E73">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>-0.1221</v>
       </c>
       <c r="G73">
         <v>0.1072</v>
       </c>
       <c r="J73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.19439999999999996</v>
       </c>
       <c r="L73">
         <v>-0.42220000000000002</v>
       </c>
       <c r="O73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-2.0999999999999908E-3</v>
       </c>
       <c r="Q73">
         <v>-0.9</v>
       </c>
       <c r="T73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>5.3499999999999992E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W73">
+        <f t="shared" si="13"/>
+        <v>0.99992958252068942</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>7300</v>
       </c>
@@ -9160,32 +9464,36 @@
         <v>-0.1114</v>
       </c>
       <c r="E74">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>-0.21089999999999998</v>
       </c>
       <c r="G74">
         <v>0.30159999999999998</v>
       </c>
       <c r="J74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.33520000000000005</v>
       </c>
       <c r="L74">
         <v>-0.42430000000000001</v>
       </c>
       <c r="O74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>4.3499999999999983E-2</v>
       </c>
       <c r="Q74">
         <v>-0.84650000000000003</v>
       </c>
       <c r="T74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.25870000000000004</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W74">
+        <f t="shared" si="13"/>
+        <v>0.99998262984913899</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>7400</v>
       </c>
@@ -9193,32 +9501,36 @@
         <v>-0.32229999999999998</v>
       </c>
       <c r="E75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>-0.23710000000000003</v>
       </c>
       <c r="G75">
         <v>0.63680000000000003</v>
       </c>
       <c r="J75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.11499999999999999</v>
       </c>
       <c r="L75">
         <v>-0.38080000000000003</v>
       </c>
       <c r="O75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>6.2400000000000011E-2</v>
       </c>
       <c r="Q75">
         <v>-0.58779999999999999</v>
       </c>
       <c r="T75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.4446</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W75">
+        <f t="shared" si="13"/>
+        <v>0.99995450396505547</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>7500</v>
       </c>
@@ -9226,32 +9538,36 @@
         <v>-0.55940000000000001</v>
       </c>
       <c r="E76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>-8.4300000000000042E-2</v>
       </c>
       <c r="G76">
         <v>0.75180000000000002</v>
       </c>
       <c r="J76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>-7.8100000000000058E-2</v>
       </c>
       <c r="L76">
         <v>-0.31840000000000002</v>
       </c>
       <c r="O76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.10030000000000003</v>
       </c>
       <c r="Q76">
         <v>-0.14319999999999999</v>
       </c>
       <c r="T76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.43340000000000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W76">
+        <f t="shared" si="13"/>
+        <v>1.0000081999663804</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>7600</v>
       </c>
@@ -9259,32 +9575,36 @@
         <v>-0.64370000000000005</v>
       </c>
       <c r="E77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>9.099999999999997E-3</v>
       </c>
       <c r="G77">
         <v>0.67369999999999997</v>
       </c>
       <c r="J77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>-0.28999999999999998</v>
       </c>
       <c r="L77">
         <v>-0.21809999999999999</v>
       </c>
       <c r="O77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.17269999999999999</v>
       </c>
       <c r="Q77">
         <v>0.29020000000000001</v>
       </c>
       <c r="T77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.37909999999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W77">
+        <f t="shared" si="13"/>
+        <v>1.0000025149968375</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>7700</v>
       </c>
@@ -9292,32 +9612,36 @@
         <v>-0.63460000000000005</v>
       </c>
       <c r="E78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>5.0200000000000022E-2</v>
       </c>
       <c r="G78">
         <v>0.38369999999999999</v>
       </c>
       <c r="J78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>-0.33249999999999996</v>
       </c>
       <c r="L78">
         <v>-4.5400000000000003E-2</v>
       </c>
       <c r="O78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.157</v>
       </c>
       <c r="Q78">
         <v>0.66930000000000001</v>
       </c>
       <c r="T78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.13280000000000003</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W78">
+        <f t="shared" si="13"/>
+        <v>0.99998324985971643</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>7800</v>
       </c>
@@ -9325,32 +9649,36 @@
         <v>-0.58440000000000003</v>
       </c>
       <c r="E79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>6.9400000000000017E-2</v>
       </c>
       <c r="G79">
         <v>5.1200000000000002E-2</v>
       </c>
       <c r="J79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>-0.20519999999999999</v>
       </c>
       <c r="L79">
         <v>0.1116</v>
       </c>
       <c r="O79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>5.149999999999999E-2</v>
       </c>
       <c r="Q79">
         <v>0.80210000000000004</v>
       </c>
       <c r="T79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>2.52E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W79">
+        <f t="shared" si="13"/>
+        <v>0.99998188483592043</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>7900</v>
       </c>
@@ -9358,32 +9686,36 @@
         <v>-0.51500000000000001</v>
       </c>
       <c r="E80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>6.2400000000000011E-2</v>
       </c>
       <c r="G80">
         <v>-0.154</v>
       </c>
       <c r="J80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>-5.5999999999999994E-2</v>
       </c>
       <c r="L80">
         <v>0.16309999999999999</v>
       </c>
       <c r="O80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>5.8900000000000008E-2</v>
       </c>
       <c r="Q80">
         <v>0.82730000000000004</v>
       </c>
       <c r="T80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1.0299999999999976E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W80">
+        <f t="shared" si="13"/>
+        <v>0.99998394987119676</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>8000</v>
       </c>
@@ -9391,32 +9723,36 @@
         <v>-0.4526</v>
       </c>
       <c r="E81">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>-3.0899999999999983E-2</v>
       </c>
       <c r="G81">
         <v>-0.21</v>
       </c>
       <c r="J81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>-0.13780000000000001</v>
       </c>
       <c r="L81">
         <v>0.222</v>
       </c>
       <c r="O81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>8.1499999999999989E-2</v>
       </c>
       <c r="Q81">
         <v>0.83760000000000001</v>
       </c>
       <c r="T81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-9.3799999999999994E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W81">
+        <f t="shared" si="13"/>
+        <v>0.99990225522297937</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>8100</v>
       </c>
@@ -9424,32 +9760,36 @@
         <v>-0.48349999999999999</v>
       </c>
       <c r="E82">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>4.3300000000000005E-2</v>
       </c>
       <c r="G82">
         <v>-0.3478</v>
       </c>
       <c r="J82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>-0.11559999999999998</v>
       </c>
       <c r="L82">
         <v>0.30349999999999999</v>
       </c>
       <c r="O82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>4.3399999999999994E-2</v>
       </c>
       <c r="Q82">
         <v>0.74380000000000002</v>
       </c>
       <c r="T82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-5.7400000000000007E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W82">
+        <f t="shared" si="13"/>
+        <v>1.0000438890368761</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>8200</v>
       </c>
@@ -9457,32 +9797,36 @@
         <v>-0.44019999999999998</v>
       </c>
       <c r="E83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>5.4099999999999981E-2</v>
       </c>
       <c r="G83">
         <v>-0.46339999999999998</v>
       </c>
       <c r="J83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>-0.16160000000000002</v>
       </c>
       <c r="L83">
         <v>0.34689999999999999</v>
       </c>
       <c r="O83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.9900000000000038E-2</v>
       </c>
       <c r="Q83">
         <v>0.68640000000000001</v>
       </c>
       <c r="T83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-0.12209999999999999</v>
       </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W83">
+        <f t="shared" si="13"/>
+        <v>1.0000000849999964</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>8300</v>
       </c>
@@ -9490,32 +9834,36 @@
         <v>-0.3861</v>
       </c>
       <c r="E84">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>9.6999999999999975E-2</v>
       </c>
       <c r="G84">
         <v>-0.625</v>
       </c>
       <c r="J84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>-0.20999999999999996</v>
       </c>
       <c r="L84">
         <v>0.37680000000000002</v>
       </c>
       <c r="O84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-7.6100000000000001E-2</v>
       </c>
       <c r="Q84">
         <v>0.56430000000000002</v>
       </c>
       <c r="T84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-0.2056</v>
       </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W84">
+        <f t="shared" si="13"/>
+        <v>1.000055468461625</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>8400</v>
       </c>
@@ -9523,32 +9871,36 @@
         <v>-0.28910000000000002</v>
       </c>
       <c r="E85">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>0.15810000000000002</v>
       </c>
       <c r="G85">
         <v>-0.83499999999999996</v>
       </c>
       <c r="J85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>-0.11440000000000006</v>
       </c>
       <c r="L85">
         <v>0.30070000000000002</v>
       </c>
       <c r="O85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-1.6200000000000048E-2</v>
       </c>
       <c r="Q85">
         <v>0.35870000000000002</v>
       </c>
       <c r="T85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-0.38040000000000002</v>
       </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W85">
+        <f t="shared" si="13"/>
+        <v>0.99994499348714172</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>8500</v>
       </c>
@@ -9556,32 +9908,36 @@
         <v>-0.13100000000000001</v>
       </c>
       <c r="E86">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>2.8300000000000006E-2</v>
       </c>
       <c r="G86">
         <v>-0.94940000000000002</v>
       </c>
       <c r="J86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>5.1400000000000001E-2</v>
       </c>
       <c r="L86">
         <v>0.28449999999999998</v>
       </c>
       <c r="O86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-4.9699999999999966E-2</v>
       </c>
       <c r="Q86">
         <v>-2.1700000000000001E-2</v>
       </c>
       <c r="T86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-0.33589999999999998</v>
       </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W86">
+        <f t="shared" si="13"/>
+        <v>0.99996624943044954</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>8600</v>
       </c>
@@ -9589,32 +9945,36 @@
         <v>-0.1027</v>
       </c>
       <c r="E87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>0.11</v>
       </c>
       <c r="G87">
         <v>-0.89800000000000002</v>
       </c>
       <c r="J87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>6.7799999999999971E-2</v>
       </c>
       <c r="L87">
         <v>0.23480000000000001</v>
       </c>
       <c r="O87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-0.10020000000000001</v>
       </c>
       <c r="Q87">
         <v>-0.35759999999999997</v>
       </c>
       <c r="T87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-0.18340000000000006</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W87">
+        <f t="shared" si="13"/>
+        <v>0.99998004480089497</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>8700</v>
       </c>
@@ -9622,32 +9982,36 @@
         <v>7.3000000000000001E-3</v>
       </c>
       <c r="E88">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>3.6600000000000001E-2</v>
       </c>
       <c r="G88">
         <v>-0.83020000000000005</v>
       </c>
       <c r="J88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>5.4500000000000104E-2</v>
       </c>
       <c r="L88">
         <v>0.1346</v>
       </c>
       <c r="O88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-6.0399999999999995E-2</v>
       </c>
       <c r="Q88">
         <v>-0.54100000000000004</v>
       </c>
       <c r="T88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-8.4199999999999942E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W88">
+        <f t="shared" si="13"/>
+        <v>1.0000417441287139</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>8800</v>
       </c>
@@ -9655,32 +10019,36 @@
         <v>4.3900000000000002E-2</v>
       </c>
       <c r="E89">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>0.15290000000000001</v>
       </c>
       <c r="G89">
         <v>-0.77569999999999995</v>
       </c>
       <c r="J89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>7.4699999999999989E-2</v>
       </c>
       <c r="L89">
         <v>7.4200000000000002E-2</v>
       </c>
       <c r="O89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-4.1700000000000001E-2</v>
       </c>
       <c r="Q89">
         <v>-0.62519999999999998</v>
       </c>
       <c r="T89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-5.9499999999999997E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W89">
+        <f t="shared" si="13"/>
+        <v>1.0000091899577723</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>8900</v>
       </c>
@@ -9688,32 +10056,36 @@
         <v>0.1968</v>
       </c>
       <c r="E90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>0.28080000000000005</v>
       </c>
       <c r="G90">
         <v>-0.70099999999999996</v>
       </c>
       <c r="J90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.18099999999999994</v>
       </c>
       <c r="L90">
         <v>3.2500000000000001E-2</v>
       </c>
       <c r="O90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-7.6200000000000004E-2</v>
       </c>
       <c r="Q90">
         <v>-0.68469999999999998</v>
       </c>
       <c r="T90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-2.2100000000000009E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W90">
+        <f t="shared" si="13"/>
+        <v>1.0000007899996879</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>9000</v>
       </c>
@@ -9721,32 +10093,36 @@
         <v>0.47760000000000002</v>
       </c>
       <c r="E91">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>0.23429999999999995</v>
       </c>
       <c r="G91">
         <v>-0.52</v>
       </c>
       <c r="J91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.13070000000000004</v>
       </c>
       <c r="L91">
         <v>-4.3700000000000003E-2</v>
       </c>
       <c r="O91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-7.4799999999999991E-2</v>
       </c>
       <c r="Q91">
         <v>-0.70679999999999998</v>
       </c>
       <c r="T91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.13439999999999996</v>
       </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W91">
+        <f t="shared" si="13"/>
+        <v>0.99998884493778228</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>9100</v>
       </c>
@@ -9754,32 +10130,36 @@
         <v>0.71189999999999998</v>
       </c>
       <c r="E92">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>0.11309999999999998</v>
       </c>
       <c r="G92">
         <v>-0.38929999999999998</v>
       </c>
       <c r="J92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.16709999999999997</v>
       </c>
       <c r="L92">
         <v>-0.11849999999999999</v>
       </c>
       <c r="O92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-0.15010000000000001</v>
       </c>
       <c r="Q92">
         <v>-0.57240000000000002</v>
       </c>
       <c r="T92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.12760000000000005</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W92">
+        <f t="shared" si="13"/>
+        <v>1.0000200547989024</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>9200</v>
       </c>
@@ -9787,32 +10167,36 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="E93">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>1.8000000000000016E-2</v>
       </c>
       <c r="G93">
         <v>-0.22220000000000001</v>
       </c>
       <c r="J93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.16140000000000002</v>
       </c>
       <c r="L93">
         <v>-0.26860000000000001</v>
       </c>
       <c r="O93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-0.14450000000000002</v>
       </c>
       <c r="Q93">
         <v>-0.44479999999999997</v>
       </c>
       <c r="T93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.10569999999999996</v>
       </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W93">
+        <f t="shared" si="13"/>
+        <v>0.99999541998951169</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>9300</v>
       </c>
@@ -9820,32 +10204,36 @@
         <v>0.84299999999999997</v>
       </c>
       <c r="E94">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>-2.2199999999999998E-2</v>
       </c>
       <c r="G94">
         <v>-6.08E-2</v>
       </c>
       <c r="J94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>7.7100000000000002E-2</v>
       </c>
       <c r="L94">
         <v>-0.41310000000000002</v>
       </c>
       <c r="O94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-9.319999999999995E-2</v>
       </c>
       <c r="Q94">
         <v>-0.33910000000000001</v>
       </c>
       <c r="T94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>7.51E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W94">
+        <f t="shared" si="13"/>
+        <v>0.99999302997570949</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>9400</v>
       </c>
@@ -9853,32 +10241,36 @@
         <v>0.82079999999999997</v>
       </c>
       <c r="E95">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>-4.0300000000000002E-2</v>
       </c>
       <c r="G95">
         <v>1.6299999999999999E-2</v>
       </c>
       <c r="J95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>7.7499999999999999E-2</v>
       </c>
       <c r="L95">
         <v>-0.50629999999999997</v>
       </c>
       <c r="O95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-6.9300000000000028E-2</v>
       </c>
       <c r="Q95">
         <v>-0.26400000000000001</v>
       </c>
       <c r="T95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>3.8800000000000001E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W95">
+        <f t="shared" si="13"/>
+        <v>1.0000070099754301</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>9500</v>
       </c>
@@ -9886,32 +10278,36 @@
         <v>0.78049999999999997</v>
       </c>
       <c r="E96">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>-1.7299999999999982E-2</v>
       </c>
       <c r="G96">
         <v>9.3799999999999994E-2</v>
       </c>
       <c r="J96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>5.7200000000000001E-2</v>
       </c>
       <c r="L96">
         <v>-0.5756</v>
       </c>
       <c r="O96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-8.499999999999952E-3</v>
       </c>
       <c r="Q96">
         <v>-0.22520000000000001</v>
       </c>
       <c r="T96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-5.9999999999999776E-3</v>
       </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W96">
+        <f t="shared" si="13"/>
+        <v>1.0000045449896715</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>9600</v>
       </c>
@@ -9919,32 +10315,36 @@
         <v>0.76319999999999999</v>
       </c>
       <c r="E97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>-6.3100000000000045E-2</v>
       </c>
       <c r="G97">
         <v>0.151</v>
       </c>
       <c r="J97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.15120000000000003</v>
       </c>
       <c r="L97">
         <v>-0.58409999999999995</v>
       </c>
       <c r="O97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-3.0500000000000083E-2</v>
       </c>
       <c r="Q97">
         <v>-0.23119999999999999</v>
       </c>
       <c r="T97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>2.9199999999999976E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W97">
+        <f t="shared" si="13"/>
+        <v>0.99995074378691262</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>9700</v>
       </c>
@@ -9952,32 +10352,36 @@
         <v>0.70009999999999994</v>
       </c>
       <c r="E98">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>-0.14419999999999999</v>
       </c>
       <c r="G98">
         <v>0.30220000000000002</v>
       </c>
       <c r="J98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.25790000000000002</v>
       </c>
       <c r="L98">
         <v>-0.61460000000000004</v>
       </c>
       <c r="O98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>1.2700000000000045E-2</v>
       </c>
       <c r="Q98">
         <v>-0.20200000000000001</v>
       </c>
       <c r="T98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>7.9600000000000018E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W98">
+        <f t="shared" si="13"/>
+        <v>1.000001004999495</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>9800</v>
       </c>
@@ -9985,32 +10389,36 @@
         <v>0.55589999999999995</v>
       </c>
       <c r="E99">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>-0.21389999999999992</v>
       </c>
       <c r="G99">
         <v>0.56010000000000004</v>
       </c>
       <c r="J99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.21870000000000001</v>
       </c>
       <c r="L99">
         <v>-0.60189999999999999</v>
       </c>
       <c r="O99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>7.7300000000000035E-2</v>
       </c>
       <c r="Q99">
         <v>-0.12239999999999999</v>
       </c>
       <c r="T99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.15859999999999999</v>
       </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W99">
+        <f t="shared" si="13"/>
+        <v>1.0000010949994005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>9900</v>
       </c>
@@ -10018,32 +10426,36 @@
         <v>0.34200000000000003</v>
       </c>
       <c r="E100">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>-0.28700000000000003</v>
       </c>
       <c r="G100">
         <v>0.77880000000000005</v>
       </c>
       <c r="J100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.1119</v>
       </c>
       <c r="L100">
         <v>-0.52459999999999996</v>
       </c>
       <c r="O100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.10739999999999994</v>
       </c>
       <c r="Q100">
         <v>3.6200000000000003E-2</v>
       </c>
       <c r="T100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.13589999999999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W100">
+        <f t="shared" si="13"/>
+        <v>1.0000045199897849</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>10000</v>
       </c>
@@ -10051,32 +10463,36 @@
         <v>5.5E-2</v>
       </c>
       <c r="E101">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>-0.25230000000000002</v>
       </c>
       <c r="G101">
         <v>0.89070000000000005</v>
       </c>
       <c r="J101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>8.0000000000000071E-3</v>
       </c>
       <c r="L101">
         <v>-0.41720000000000002</v>
       </c>
       <c r="O101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.15570000000000001</v>
       </c>
       <c r="Q101">
         <v>0.1721</v>
       </c>
       <c r="T101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.11950000000000002</v>
       </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W101">
+        <f t="shared" si="13"/>
+        <v>1.0000228697384876</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>10100</v>
       </c>
@@ -10084,32 +10500,36 @@
         <v>-0.1973</v>
       </c>
       <c r="E102">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>-0.13170000000000001</v>
       </c>
       <c r="G102">
         <v>0.89870000000000005</v>
       </c>
       <c r="J102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>-2.5000000000000022E-2</v>
       </c>
       <c r="L102">
         <v>-0.26150000000000001</v>
       </c>
       <c r="O102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.1411</v>
       </c>
       <c r="Q102">
         <v>0.29160000000000003</v>
       </c>
       <c r="T102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>4.6099999999999974E-2</v>
       </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W102">
+        <f t="shared" si="13"/>
+        <v>1.0000008949995995</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>10200</v>
       </c>
@@ -10117,32 +10537,36 @@
         <v>-0.32900000000000001</v>
       </c>
       <c r="E103">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>-5.4900000000000004E-2</v>
       </c>
       <c r="G103">
         <v>0.87370000000000003</v>
       </c>
       <c r="J103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>-6.8000000000000282E-3</v>
       </c>
       <c r="L103">
         <v>-0.12039999999999999</v>
       </c>
       <c r="O103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.13219999999999998</v>
       </c>
       <c r="Q103">
         <v>0.3377</v>
       </c>
       <c r="T103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-1.9899999999999973E-2</v>
       </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W103">
+        <f t="shared" si="13"/>
+        <v>1.0000650678830854</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>10300</v>
       </c>
@@ -10150,32 +10574,36 @@
         <v>-0.38390000000000002</v>
       </c>
       <c r="E104">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>-0.1018</v>
       </c>
       <c r="G104">
         <v>0.8669</v>
       </c>
       <c r="J104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>-2.7700000000000058E-2</v>
       </c>
       <c r="L104">
         <v>1.18E-2</v>
       </c>
       <c r="O104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.13</v>
       </c>
       <c r="Q104">
         <v>0.31780000000000003</v>
       </c>
       <c r="T104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-0.11850000000000002</v>
       </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W104">
+        <f t="shared" si="13"/>
+        <v>1.0000154498806506</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>10400</v>
       </c>
@@ -10183,32 +10611,36 @@
         <v>-0.48570000000000002</v>
       </c>
       <c r="E105">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>-0.12280000000000002</v>
       </c>
       <c r="G105">
         <v>0.83919999999999995</v>
       </c>
       <c r="J105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>-6.1199999999999921E-2</v>
       </c>
       <c r="L105">
         <v>0.14180000000000001</v>
       </c>
       <c r="O105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-6.7000000000000115E-3</v>
       </c>
       <c r="Q105">
         <v>0.1993</v>
       </c>
       <c r="T105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-0.12040000000000001</v>
       </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W105">
+        <f t="shared" si="13"/>
+        <v>0.9999944299844874</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>10500</v>
       </c>
@@ -10216,32 +10648,36 @@
         <v>-0.60850000000000004</v>
       </c>
       <c r="E106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>-0.18489999999999995</v>
       </c>
       <c r="G106">
         <v>0.77800000000000002</v>
       </c>
       <c r="J106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>-0.18880000000000008</v>
       </c>
       <c r="L106">
         <v>0.1351</v>
       </c>
       <c r="O106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-8.0799999999999997E-2</v>
       </c>
       <c r="Q106">
         <v>7.8899999999999998E-2</v>
       </c>
       <c r="T106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-0.22209999999999999</v>
       </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W106">
+        <f t="shared" si="13"/>
+        <v>1.0000167348599722</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>10600</v>
       </c>
@@ -10249,32 +10685,36 @@
         <v>-0.79339999999999999</v>
       </c>
       <c r="E107">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>-5.7499999999999996E-2</v>
       </c>
       <c r="G107">
         <v>0.58919999999999995</v>
       </c>
       <c r="J107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>-0.20909999999999995</v>
       </c>
       <c r="L107">
         <v>5.4300000000000001E-2</v>
       </c>
       <c r="O107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-1.9599999999999999E-2</v>
       </c>
       <c r="Q107">
         <v>-0.14319999999999999</v>
       </c>
       <c r="T107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-0.2177</v>
       </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W107">
+        <f t="shared" si="13"/>
+        <v>1.0000474638735901</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>10700</v>
       </c>
@@ -10282,32 +10722,36 @@
         <v>-0.85089999999999999</v>
       </c>
       <c r="E108">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>8.3300000000000041E-2</v>
       </c>
       <c r="G108">
         <v>0.38009999999999999</v>
       </c>
       <c r="J108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>-0.3503</v>
       </c>
       <c r="L108">
         <v>3.4700000000000002E-2</v>
       </c>
       <c r="O108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-8.8999999999999996E-2</v>
       </c>
       <c r="Q108">
         <v>-0.3609</v>
       </c>
       <c r="T108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-0.27700000000000002</v>
       </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W108">
+        <f t="shared" si="13"/>
+        <v>0.99997985979718607</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>10800</v>
       </c>
@@ -10315,32 +10759,36 @@
         <v>-0.76759999999999995</v>
       </c>
       <c r="E109">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>0.1764</v>
       </c>
       <c r="G109">
         <v>2.98E-2</v>
       </c>
       <c r="J109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>-0.2611</v>
       </c>
       <c r="L109">
         <v>-5.4300000000000001E-2</v>
       </c>
       <c r="O109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-6.3899999999999998E-2</v>
       </c>
       <c r="Q109">
         <v>-0.63790000000000002</v>
       </c>
       <c r="T109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-0.12559999999999993</v>
       </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W109">
+        <f t="shared" si="13"/>
+        <v>0.99998134982608544</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>10900</v>
       </c>
@@ -10348,32 +10796,36 @@
         <v>-0.59119999999999995</v>
       </c>
       <c r="E110">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>0.16569999999999996</v>
       </c>
       <c r="G110">
         <v>-0.23130000000000001</v>
       </c>
       <c r="J110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>-0.13590000000000002</v>
       </c>
       <c r="L110">
         <v>-0.1182</v>
       </c>
       <c r="O110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-9.1599999999999987E-2</v>
       </c>
       <c r="Q110">
         <v>-0.76349999999999996</v>
       </c>
       <c r="T110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-3.6600000000000077E-2</v>
       </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W110">
+        <f t="shared" si="13"/>
+        <v>0.9999603092123206</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>11000</v>
       </c>
@@ -10381,32 +10833,36 @@
         <v>-0.42549999999999999</v>
       </c>
       <c r="E111">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>0.15049999999999997</v>
       </c>
       <c r="G111">
         <v>-0.36720000000000003</v>
       </c>
       <c r="J111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>-8.7499999999999967E-2</v>
       </c>
       <c r="L111">
         <v>-0.20979999999999999</v>
       </c>
       <c r="O111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-9.6400000000000041E-2</v>
       </c>
       <c r="Q111">
         <v>-0.80010000000000003</v>
       </c>
       <c r="T111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1.0199999999999987E-2</v>
       </c>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W111">
+        <f t="shared" si="13"/>
+        <v>1.0000310695173427</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>11100</v>
       </c>
@@ -10414,32 +10870,36 @@
         <v>-0.27500000000000002</v>
       </c>
       <c r="E112">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>5.4400000000000032E-2</v>
       </c>
       <c r="G112">
         <v>-0.45469999999999999</v>
       </c>
       <c r="J112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>-0.11270000000000002</v>
       </c>
       <c r="L112">
         <v>-0.30620000000000003</v>
       </c>
       <c r="O112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>8.4000000000000186E-3</v>
       </c>
       <c r="Q112">
         <v>-0.78990000000000005</v>
       </c>
       <c r="T112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>5.4600000000000093E-2</v>
       </c>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W112">
+        <f t="shared" si="13"/>
+        <v>1.0000387692484727</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>11200</v>
       </c>
@@ -10447,32 +10907,36 @@
         <v>-0.22059999999999999</v>
       </c>
       <c r="E113">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>0.14169999999999999</v>
       </c>
       <c r="G113">
         <v>-0.56740000000000002</v>
       </c>
       <c r="J113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>-9.2500000000000027E-2</v>
       </c>
       <c r="L113">
         <v>-0.29780000000000001</v>
       </c>
       <c r="O113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-0.11630000000000001</v>
       </c>
       <c r="Q113">
         <v>-0.73529999999999995</v>
       </c>
       <c r="T113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.11339999999999995</v>
       </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W113">
+        <f t="shared" si="13"/>
+        <v>0.99997902478001999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>11300</v>
       </c>
@@ -10480,32 +10944,36 @@
         <v>-7.8899999999999998E-2</v>
       </c>
       <c r="E114">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>0.13350000000000001</v>
       </c>
       <c r="G114">
         <v>-0.65990000000000004</v>
       </c>
       <c r="J114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>-7.5999999999999401E-3</v>
       </c>
       <c r="L114">
         <v>-0.41410000000000002</v>
       </c>
       <c r="O114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-2.8799999999999992E-2</v>
       </c>
       <c r="Q114">
         <v>-0.62190000000000001</v>
       </c>
       <c r="T114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>2.5900000000000034E-2</v>
       </c>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W114">
+        <f t="shared" si="13"/>
+        <v>0.99996581941584395</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>11400</v>
       </c>
@@ -10513,32 +10981,36 @@
         <v>5.4600000000000003E-2</v>
       </c>
       <c r="E115">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>0.12229999999999999</v>
       </c>
       <c r="G115">
         <v>-0.66749999999999998</v>
       </c>
       <c r="J115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>-0.12029999999999996</v>
       </c>
       <c r="L115">
         <v>-0.44290000000000002</v>
       </c>
       <c r="O115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>6.4800000000000024E-2</v>
       </c>
       <c r="Q115">
         <v>-0.59599999999999997</v>
       </c>
       <c r="T115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.14319999999999999</v>
       </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W115">
+        <f t="shared" si="13"/>
+        <v>0.99995690907158596</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>11500</v>
       </c>
@@ -10546,32 +11018,36 @@
         <v>0.1769</v>
       </c>
       <c r="E116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>5.4100000000000009E-2</v>
       </c>
       <c r="G116">
         <v>-0.78779999999999994</v>
       </c>
       <c r="J116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>-0.10000000000000009</v>
       </c>
       <c r="L116">
         <v>-0.37809999999999999</v>
       </c>
       <c r="O116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>3.1200000000000006E-2</v>
       </c>
       <c r="Q116">
         <v>-0.45279999999999998</v>
       </c>
       <c r="T116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.25749999999999995</v>
       </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W116">
+        <f t="shared" si="13"/>
+        <v>0.99995494898520298</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>11600</v>
       </c>
@@ -10579,32 +11055,36 @@
         <v>0.23100000000000001</v>
       </c>
       <c r="E117">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>4.7699999999999992E-2</v>
       </c>
       <c r="G117">
         <v>-0.88780000000000003</v>
       </c>
       <c r="J117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>-2.6899999999999924E-2</v>
       </c>
       <c r="L117">
         <v>-0.34689999999999999</v>
       </c>
       <c r="O117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>5.8699999999999974E-2</v>
       </c>
       <c r="Q117">
         <v>-0.1953</v>
       </c>
       <c r="T117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.24709999999999999</v>
       </c>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W117">
+        <f t="shared" si="13"/>
+        <v>1.0000157698756555</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>11700</v>
       </c>
@@ -10612,32 +11092,36 @@
         <v>0.2787</v>
       </c>
       <c r="E118">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>-1.0099999999999998E-2</v>
       </c>
       <c r="G118">
         <v>-0.91469999999999996</v>
       </c>
       <c r="J118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>2.2100000000000009E-2</v>
       </c>
       <c r="L118">
         <v>-0.28820000000000001</v>
       </c>
       <c r="O118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>4.7400000000000025E-2</v>
       </c>
       <c r="Q118">
         <v>5.1799999999999999E-2</v>
       </c>
       <c r="T118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.21859999999999996</v>
       </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W118">
+        <f t="shared" si="13"/>
+        <v>1.0000461289360607</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>11800</v>
       </c>
@@ -10645,32 +11129,36 @@
         <v>0.26860000000000001</v>
       </c>
       <c r="E119">
-        <f t="shared" ref="E119:E182" si="4">B120-B119</f>
+        <f t="shared" ref="E119:E182" si="14">B120-B119</f>
         <v>5.1999999999999991E-2</v>
       </c>
       <c r="G119">
         <v>-0.89259999999999995</v>
       </c>
       <c r="J119">
-        <f t="shared" ref="J119:J182" si="5">G120-G119</f>
+        <f t="shared" ref="J119:J182" si="15">G120-G119</f>
         <v>9.5999999999999974E-2</v>
       </c>
       <c r="L119">
         <v>-0.24079999999999999</v>
       </c>
       <c r="O119">
-        <f t="shared" ref="O119:O182" si="6">L120-L119</f>
+        <f t="shared" ref="O119:O182" si="16">L120-L119</f>
         <v>1.6099999999999975E-2</v>
       </c>
       <c r="Q119">
         <v>0.27039999999999997</v>
       </c>
       <c r="T119">
-        <f t="shared" ref="T119:T182" si="7">Q120-Q119</f>
+        <f t="shared" ref="T119:T182" si="17">Q120-Q119</f>
         <v>0.19010000000000005</v>
       </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W119">
+        <f t="shared" si="13"/>
+        <v>0.99999075995731079</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>11900</v>
       </c>
@@ -10678,32 +11166,36 @@
         <v>0.3206</v>
       </c>
       <c r="E120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0.19269999999999998</v>
       </c>
       <c r="G120">
         <v>-0.79659999999999997</v>
       </c>
       <c r="J120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>8.8500000000000023E-2</v>
       </c>
       <c r="L120">
         <v>-0.22470000000000001</v>
       </c>
       <c r="O120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>9.4800000000000023E-2</v>
       </c>
       <c r="Q120">
         <v>0.46050000000000002</v>
       </c>
       <c r="T120">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>6.7999999999999727E-3</v>
       </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W120">
+        <f t="shared" si="13"/>
+        <v>0.99995312890155008</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>12000</v>
       </c>
@@ -10711,32 +11203,36 @@
         <v>0.51329999999999998</v>
       </c>
       <c r="E121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0.16710000000000003</v>
       </c>
       <c r="G121">
         <v>-0.70809999999999995</v>
       </c>
       <c r="J121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0.14459999999999995</v>
       </c>
       <c r="L121">
         <v>-0.12989999999999999</v>
       </c>
       <c r="O121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>7.5599999999999987E-2</v>
       </c>
       <c r="Q121">
         <v>0.46729999999999999</v>
       </c>
       <c r="T121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>-1.9000000000000128E-3</v>
       </c>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W121">
+        <f t="shared" si="13"/>
+        <v>1.0000628980219195</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>12100</v>
       </c>
@@ -10744,32 +11240,36 @@
         <v>0.6804</v>
       </c>
       <c r="E122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>3.7699999999999956E-2</v>
       </c>
       <c r="G122">
         <v>-0.5635</v>
       </c>
       <c r="J122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0.17349999999999999</v>
       </c>
       <c r="L122">
         <v>-5.4300000000000001E-2</v>
       </c>
       <c r="O122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0.1232</v>
       </c>
       <c r="Q122">
         <v>0.46539999999999998</v>
       </c>
       <c r="T122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.10690000000000005</v>
       </c>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W122">
+        <f t="shared" si="13"/>
+        <v>1.0000110299391702</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>12200</v>
       </c>
@@ -10777,32 +11277,36 @@
         <v>0.71809999999999996</v>
       </c>
       <c r="E123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>-3.5399999999999987E-2</v>
       </c>
       <c r="G123">
         <v>-0.39</v>
       </c>
       <c r="J123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0.1474</v>
       </c>
       <c r="L123">
         <v>6.8900000000000003E-2</v>
       </c>
       <c r="O123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0.1396</v>
       </c>
       <c r="Q123">
         <v>0.57230000000000003</v>
       </c>
       <c r="T123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>8.4600000000000009E-2</v>
       </c>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W123">
+        <f t="shared" si="13"/>
+        <v>1.0000210547783481</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>12300</v>
       </c>
@@ -10810,32 +11314,36 @@
         <v>0.68269999999999997</v>
       </c>
       <c r="E124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>4.6200000000000019E-2</v>
       </c>
       <c r="G124">
         <v>-0.24260000000000001</v>
       </c>
       <c r="J124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>5.6300000000000017E-2</v>
       </c>
       <c r="L124">
         <v>0.20849999999999999</v>
       </c>
       <c r="O124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>9.8300000000000026E-2</v>
       </c>
       <c r="Q124">
         <v>0.65690000000000004</v>
       </c>
       <c r="T124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>-7.3900000000000077E-2</v>
       </c>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W124">
+        <f t="shared" si="13"/>
+        <v>0.99996195427626144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>12400</v>
       </c>
@@ -10843,32 +11351,36 @@
         <v>0.72889999999999999</v>
       </c>
       <c r="E125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0.16610000000000003</v>
       </c>
       <c r="G125">
         <v>-0.18629999999999999</v>
       </c>
       <c r="J125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>6.2E-2</v>
       </c>
       <c r="L125">
         <v>0.30680000000000002</v>
       </c>
       <c r="O125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>4.5699999999999963E-2</v>
       </c>
       <c r="Q125">
         <v>0.58299999999999996</v>
       </c>
       <c r="T125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>-0.33949999999999997</v>
       </c>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W125">
+        <f t="shared" si="13"/>
+        <v>1.000009069958868</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>12500</v>
       </c>
@@ -10876,32 +11388,36 @@
         <v>0.89500000000000002</v>
       </c>
       <c r="E126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>5.149999999999999E-2</v>
       </c>
       <c r="G126">
         <v>-0.12429999999999999</v>
       </c>
       <c r="J126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0.1265</v>
       </c>
       <c r="L126">
         <v>0.35249999999999998</v>
       </c>
       <c r="O126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>-3.2899999999999985E-2</v>
       </c>
       <c r="Q126">
         <v>0.24349999999999999</v>
       </c>
       <c r="T126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>-0.28920000000000001</v>
       </c>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W126">
+        <f t="shared" si="13"/>
+        <v>1.0000119949280608</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>12600</v>
       </c>
@@ -10909,32 +11425,36 @@
         <v>0.94650000000000001</v>
       </c>
       <c r="E127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>-8.600000000000052E-3</v>
       </c>
       <c r="G127">
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="J127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0.15479999999999999</v>
       </c>
       <c r="L127">
         <v>0.3196</v>
       </c>
       <c r="O127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>-0.14499999999999999</v>
       </c>
       <c r="Q127">
         <v>-4.5699999999999998E-2</v>
       </c>
       <c r="T127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>-0.20980000000000001</v>
       </c>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W127">
+        <f t="shared" si="13"/>
+        <v>1.0000498687565536</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>12700</v>
       </c>
@@ -10942,32 +11462,36 @@
         <v>0.93789999999999996</v>
       </c>
       <c r="E128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>-0.13829999999999998</v>
       </c>
       <c r="G128">
         <v>0.157</v>
       </c>
       <c r="J128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0.15540000000000001</v>
       </c>
       <c r="L128">
         <v>0.17460000000000001</v>
       </c>
       <c r="O128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>-0.2311</v>
       </c>
       <c r="Q128">
         <v>-0.2555</v>
       </c>
       <c r="T128">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>-0.25430000000000003</v>
       </c>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W128">
+        <f t="shared" si="13"/>
+        <v>1.0000354093730881</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>12800</v>
       </c>
@@ -10975,32 +11499,36 @@
         <v>0.79959999999999998</v>
       </c>
       <c r="E129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>-0.25209999999999999</v>
       </c>
       <c r="G129">
         <v>0.31240000000000001</v>
       </c>
       <c r="J129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.9100000000000006E-2</v>
       </c>
       <c r="L129">
         <v>-5.6500000000000002E-2</v>
       </c>
       <c r="O129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>-0.1633</v>
       </c>
       <c r="Q129">
         <v>-0.50980000000000003</v>
       </c>
       <c r="T129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>-0.22629999999999995</v>
       </c>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W129">
+        <f t="shared" si="13"/>
+        <v>1.0000211047772942</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>12900</v>
       </c>
@@ -11008,32 +11536,36 @@
         <v>0.54749999999999999</v>
       </c>
       <c r="E130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>-5.3099999999999981E-2</v>
       </c>
       <c r="G130">
         <v>0.33150000000000002</v>
       </c>
       <c r="J130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="L130">
         <v>-0.2198</v>
       </c>
       <c r="O130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>-5.6400000000000006E-2</v>
       </c>
       <c r="Q130">
         <v>-0.73609999999999998</v>
       </c>
       <c r="T130">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>-9.400000000000075E-3</v>
       </c>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W130">
+        <f t="shared" si="13"/>
+        <v>0.99990187018526977</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>13000</v>
       </c>
@@ -11041,32 +11573,36 @@
         <v>0.49440000000000001</v>
       </c>
       <c r="E131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>2.3999999999999966E-2</v>
       </c>
       <c r="G131">
         <v>0.35149999999999998</v>
       </c>
       <c r="J131">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>4.0500000000000036E-2</v>
       </c>
       <c r="L131">
         <v>-0.2762</v>
       </c>
       <c r="O131">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.1900000000000022E-2</v>
       </c>
       <c r="Q131">
         <v>-0.74550000000000005</v>
       </c>
       <c r="T131">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>3.3000000000000029E-2</v>
       </c>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W131">
+        <f t="shared" ref="W131:W194" si="18">SQRT(POWER(B131,2)+POWER(G131,2)+POWER(L131,2)+POWER(Q131,2))</f>
+        <v>1.0000201497969929</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>13100</v>
       </c>
@@ -11074,32 +11610,36 @@
         <v>0.51839999999999997</v>
       </c>
       <c r="E132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>1.7900000000000027E-2</v>
       </c>
       <c r="G132">
         <v>0.39200000000000002</v>
       </c>
       <c r="J132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>4.8699999999999966E-2</v>
       </c>
       <c r="L132">
         <v>-0.26429999999999998</v>
       </c>
       <c r="O132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>-7.8000000000000014E-2</v>
       </c>
       <c r="Q132">
         <v>-0.71250000000000002</v>
       </c>
       <c r="T132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>7.9300000000000037E-2</v>
       </c>
-    </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W132">
+        <f t="shared" si="18"/>
+        <v>0.99995664906034798</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>13200</v>
       </c>
@@ -11107,32 +11647,36 @@
         <v>0.5363</v>
       </c>
       <c r="E133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>-2.7499999999999969E-2</v>
       </c>
       <c r="G133">
         <v>0.44069999999999998</v>
       </c>
       <c r="J133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>4.1200000000000014E-2</v>
       </c>
       <c r="L133">
         <v>-0.34229999999999999</v>
       </c>
       <c r="O133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>-0.1008</v>
       </c>
       <c r="Q133">
         <v>-0.63319999999999999</v>
       </c>
       <c r="T133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>7.4099999999999944E-2</v>
       </c>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W133">
+        <f t="shared" si="18"/>
+        <v>0.99997285463156449</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>13300</v>
       </c>
@@ -11140,32 +11684,36 @@
         <v>0.50880000000000003</v>
       </c>
       <c r="E134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>5.7999999999999163E-3</v>
       </c>
       <c r="G134">
         <v>0.4819</v>
       </c>
       <c r="J134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>3.7100000000000022E-2</v>
       </c>
       <c r="L134">
         <v>-0.44309999999999999</v>
       </c>
       <c r="O134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>2.579999999999999E-2</v>
       </c>
       <c r="Q134">
         <v>-0.55910000000000004</v>
       </c>
       <c r="T134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1.9100000000000006E-2</v>
       </c>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W134">
+        <f t="shared" si="18"/>
+        <v>1.0000177348427377</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>13400</v>
       </c>
@@ -11173,32 +11721,36 @@
         <v>0.51459999999999995</v>
       </c>
       <c r="E135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>-9.4699999999999951E-2</v>
       </c>
       <c r="G135">
         <v>0.51900000000000002</v>
       </c>
       <c r="J135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>9.1199999999999948E-2</v>
       </c>
       <c r="L135">
         <v>-0.4173</v>
       </c>
       <c r="O135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>-6.8500000000000005E-2</v>
       </c>
       <c r="Q135">
         <v>-0.54</v>
       </c>
       <c r="T135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>7.6000000000000012E-2</v>
       </c>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W135">
+        <f t="shared" si="18"/>
+        <v>0.9999567240635967</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>13500</v>
       </c>
@@ -11206,32 +11758,36 @@
         <v>0.4199</v>
       </c>
       <c r="E136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>-0.2261</v>
       </c>
       <c r="G136">
         <v>0.61019999999999996</v>
       </c>
       <c r="J136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0.14680000000000004</v>
       </c>
       <c r="L136">
         <v>-0.48580000000000001</v>
       </c>
       <c r="O136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>-4.0300000000000002E-2</v>
       </c>
       <c r="Q136">
         <v>-0.46400000000000002</v>
       </c>
       <c r="T136">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.12840000000000001</v>
       </c>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W136">
+        <f t="shared" si="18"/>
+        <v>0.99997884477622823</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>13600</v>
       </c>
@@ -11239,32 +11795,36 @@
         <v>0.1938</v>
       </c>
       <c r="E137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>-0.23980000000000001</v>
       </c>
       <c r="G137">
         <v>0.75700000000000001</v>
       </c>
       <c r="J137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0.12039999999999995</v>
       </c>
       <c r="L137">
         <v>-0.52610000000000001</v>
       </c>
       <c r="O137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>4.9200000000000021E-2</v>
       </c>
       <c r="Q137">
         <v>-0.33560000000000001</v>
       </c>
       <c r="T137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.31020000000000003</v>
       </c>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W137">
+        <f t="shared" si="18"/>
+        <v>1.0000080049679603</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>13700</v>
       </c>
@@ -11272,32 +11832,36 @@
         <v>-4.5999999999999999E-2</v>
       </c>
       <c r="E138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>-0.19700000000000001</v>
       </c>
       <c r="G138">
         <v>0.87739999999999996</v>
       </c>
       <c r="J138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-2.8799999999999937E-2</v>
       </c>
       <c r="L138">
         <v>-0.47689999999999999</v>
       </c>
       <c r="O138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>8.9600000000000013E-2</v>
       </c>
       <c r="Q138">
         <v>-2.5399999999999999E-2</v>
       </c>
       <c r="T138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.29159999999999997</v>
       </c>
-    </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W138">
+        <f t="shared" si="18"/>
+        <v>1.0000127649185284</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>13800</v>
       </c>
@@ -11305,32 +11869,36 @@
         <v>-0.24299999999999999</v>
       </c>
       <c r="E139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>-0.13580000000000003</v>
       </c>
       <c r="G139">
         <v>0.84860000000000002</v>
       </c>
       <c r="J139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-9.7700000000000009E-2</v>
       </c>
       <c r="L139">
         <v>-0.38729999999999998</v>
       </c>
       <c r="O139">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0.11909999999999998</v>
       </c>
       <c r="Q139">
         <v>0.26619999999999999</v>
       </c>
       <c r="T139">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.2036</v>
       </c>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W139">
+        <f t="shared" si="18"/>
+        <v>1.0000173448495782</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>13900</v>
       </c>
@@ -11338,32 +11906,36 @@
         <v>-0.37880000000000003</v>
       </c>
       <c r="E140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>-0.10499999999999998</v>
       </c>
       <c r="G140">
         <v>0.75090000000000001</v>
       </c>
       <c r="J140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-0.11280000000000001</v>
       </c>
       <c r="L140">
         <v>-0.26819999999999999</v>
       </c>
       <c r="O140">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0.10169999999999998</v>
       </c>
       <c r="Q140">
         <v>0.4698</v>
       </c>
       <c r="T140">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.10560000000000003</v>
       </c>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W140">
+        <f t="shared" si="18"/>
+        <v>0.9999917649660921</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>14000</v>
       </c>
@@ -11371,32 +11943,36 @@
         <v>-0.48380000000000001</v>
       </c>
       <c r="E141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>-7.9699999999999993E-2</v>
       </c>
       <c r="G141">
         <v>0.6381</v>
       </c>
       <c r="J141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-5.5200000000000027E-2</v>
       </c>
       <c r="L141">
         <v>-0.16650000000000001</v>
       </c>
       <c r="O141">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>5.0200000000000009E-2</v>
       </c>
       <c r="Q141">
         <v>0.57540000000000002</v>
       </c>
       <c r="T141">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>-1.7000000000000348E-3</v>
       </c>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W141">
+        <f t="shared" si="18"/>
+        <v>1.000020729785138</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>14100</v>
       </c>
@@ -11404,32 +11980,36 @@
         <v>-0.5635</v>
       </c>
       <c r="E142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>-0.18889999999999996</v>
       </c>
       <c r="G142">
         <v>0.58289999999999997</v>
       </c>
       <c r="J142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-4.8799999999999955E-2</v>
       </c>
       <c r="L142">
         <v>-0.1163</v>
       </c>
       <c r="O142">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>7.4700000000000003E-2</v>
       </c>
       <c r="Q142">
         <v>0.57369999999999999</v>
       </c>
       <c r="T142">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>-0.19029999999999997</v>
       </c>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W142">
+        <f t="shared" si="18"/>
+        <v>0.99998101981987642</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>14200</v>
       </c>
@@ -11437,32 +12017,36 @@
         <v>-0.75239999999999996</v>
       </c>
       <c r="E143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>-0.12630000000000008</v>
       </c>
       <c r="G143">
         <v>0.53410000000000002</v>
       </c>
       <c r="J143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-8.3800000000000041E-2</v>
       </c>
       <c r="L143">
         <v>-4.1599999999999998E-2</v>
       </c>
       <c r="O143">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>-1.9999999999999879E-4</v>
       </c>
       <c r="Q143">
         <v>0.38340000000000002</v>
       </c>
       <c r="T143">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>-0.2303</v>
       </c>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W143">
+        <f t="shared" si="18"/>
+        <v>1.0000473438792785</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>14300</v>
       </c>
@@ -11470,32 +12054,36 @@
         <v>-0.87870000000000004</v>
       </c>
       <c r="E144">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>-5.6300000000000017E-2</v>
       </c>
       <c r="G144">
         <v>0.45029999999999998</v>
       </c>
       <c r="J144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-0.13269999999999998</v>
       </c>
       <c r="L144">
         <v>-4.1799999999999997E-2</v>
       </c>
       <c r="O144">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0.18290000000000001</v>
       </c>
       <c r="Q144">
         <v>0.15310000000000001</v>
       </c>
       <c r="T144">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>-0.22410000000000002</v>
       </c>
-    </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W144">
+        <f t="shared" si="18"/>
+        <v>1.0000353143764475</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>14400</v>
       </c>
@@ -11503,32 +12091,36 @@
         <v>-0.93500000000000005</v>
       </c>
       <c r="E145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>7.0400000000000018E-2</v>
       </c>
       <c r="G145">
         <v>0.31759999999999999</v>
       </c>
       <c r="J145">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-7.2099999999999997E-2</v>
       </c>
       <c r="L145">
         <v>0.1411</v>
       </c>
       <c r="O145">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0.25509999999999999</v>
       </c>
       <c r="Q145">
         <v>-7.0999999999999994E-2</v>
       </c>
       <c r="T145">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>-0.11650000000000001</v>
       </c>
-    </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W145">
+        <f t="shared" si="18"/>
+        <v>1.0000224847472181</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>14500</v>
       </c>
@@ -11536,32 +12128,36 @@
         <v>-0.86460000000000004</v>
       </c>
       <c r="E146">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0.23810000000000009</v>
       </c>
       <c r="G146">
         <v>0.2455</v>
       </c>
       <c r="J146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0.17520000000000002</v>
       </c>
       <c r="L146">
         <v>0.3962</v>
       </c>
       <c r="O146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0.23399999999999999</v>
       </c>
       <c r="Q146">
         <v>-0.1875</v>
       </c>
       <c r="T146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>5.2000000000000102E-3</v>
       </c>
-    </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W146">
+        <f t="shared" si="18"/>
+        <v>0.99996704945713089</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>14600</v>
       </c>
@@ -11569,32 +12165,36 @@
         <v>-0.62649999999999995</v>
       </c>
       <c r="E147">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0.26659999999999995</v>
       </c>
       <c r="G147">
         <v>0.42070000000000002</v>
       </c>
       <c r="J147">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0.1779</v>
       </c>
       <c r="L147">
         <v>0.63019999999999998</v>
       </c>
       <c r="O147">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>8.1400000000000028E-2</v>
       </c>
       <c r="Q147">
         <v>-0.18229999999999999</v>
       </c>
       <c r="T147">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.10669999999999999</v>
       </c>
-    </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W147">
+        <f t="shared" si="18"/>
+        <v>0.99993803308005036</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>14700</v>
       </c>
@@ -11602,32 +12202,36 @@
         <v>-0.3599</v>
       </c>
       <c r="E148">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>-1.5100000000000002E-2</v>
       </c>
       <c r="G148">
         <v>0.59860000000000002</v>
       </c>
       <c r="J148">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2.3399999999999976E-2</v>
       </c>
       <c r="L148">
         <v>0.71160000000000001</v>
       </c>
       <c r="O148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>-2.5499999999999967E-2</v>
       </c>
       <c r="Q148">
         <v>-7.5600000000000001E-2</v>
       </c>
       <c r="T148">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.11699999999999999</v>
       </c>
-    </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W148">
+        <f t="shared" si="18"/>
+        <v>0.99996994454833499</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>14800</v>
       </c>
@@ -11635,32 +12239,36 @@
         <v>-0.375</v>
       </c>
       <c r="E149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>-0.3135</v>
       </c>
       <c r="G149">
         <v>0.622</v>
       </c>
       <c r="J149">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-0.2258</v>
       </c>
       <c r="L149">
         <v>0.68610000000000004</v>
       </c>
       <c r="O149">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>-8.1500000000000017E-2</v>
       </c>
       <c r="Q149">
         <v>4.1399999999999999E-2</v>
       </c>
       <c r="T149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1.67E-2</v>
       </c>
-    </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W149">
+        <f t="shared" si="18"/>
+        <v>0.99997808475986116</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>14900</v>
       </c>
@@ -11668,32 +12276,36 @@
         <v>-0.6885</v>
       </c>
       <c r="E150">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>-0.18710000000000004</v>
       </c>
       <c r="G150">
         <v>0.3962</v>
       </c>
       <c r="J150">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-0.16419999999999998</v>
       </c>
       <c r="L150">
         <v>0.60460000000000003</v>
       </c>
       <c r="O150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>-0.18200000000000005</v>
       </c>
       <c r="Q150">
         <v>5.8099999999999999E-2</v>
       </c>
       <c r="T150">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>-8.7900000000000006E-2</v>
       </c>
-    </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W150">
+        <f t="shared" si="18"/>
+        <v>0.99996172926767557</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>15000</v>
       </c>
@@ -11701,32 +12313,36 @@
         <v>-0.87560000000000004</v>
       </c>
       <c r="E151">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>-0.11019999999999996</v>
       </c>
       <c r="G151">
         <v>0.23200000000000001</v>
       </c>
       <c r="J151">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-0.12830000000000003</v>
       </c>
       <c r="L151">
         <v>0.42259999999999998</v>
       </c>
       <c r="O151">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>-0.33809999999999996</v>
       </c>
       <c r="Q151">
         <v>-2.98E-2</v>
       </c>
       <c r="T151">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>-7.1200000000000013E-2</v>
       </c>
-    </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W151">
+        <f t="shared" si="18"/>
+        <v>0.99998907994037611</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>15100</v>
       </c>
@@ -11734,32 +12350,36 @@
         <v>-0.98580000000000001</v>
       </c>
       <c r="E152">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>8.0000000000000071E-3</v>
       </c>
       <c r="G152">
         <v>0.1037</v>
       </c>
       <c r="J152">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-0.21290000000000001</v>
       </c>
       <c r="L152">
         <v>8.4500000000000006E-2</v>
       </c>
       <c r="O152">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>-0.25</v>
       </c>
       <c r="Q152">
         <v>-0.10100000000000001</v>
       </c>
       <c r="T152">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>3.3600000000000005E-2</v>
       </c>
-    </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W152">
+        <f t="shared" si="18"/>
+        <v>0.99994828866296881</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>15200</v>
       </c>
@@ -11767,32 +12387,36 @@
         <v>-0.9778</v>
       </c>
       <c r="E153">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0.11980000000000002</v>
       </c>
       <c r="G153">
         <v>-0.10920000000000001</v>
       </c>
       <c r="J153">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-0.19769999999999999</v>
       </c>
       <c r="L153">
         <v>-0.16550000000000001</v>
       </c>
       <c r="O153">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>-0.24529999999999999</v>
       </c>
       <c r="Q153">
         <v>-6.7400000000000002E-2</v>
       </c>
       <c r="T153">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>3.6400000000000002E-2</v>
       </c>
-    </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W153">
+        <f t="shared" si="18"/>
+        <v>0.99997524469358745</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>15300</v>
       </c>
@@ -11800,32 +12424,36 @@
         <v>-0.85799999999999998</v>
       </c>
       <c r="E154">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>5.8599999999999985E-2</v>
       </c>
       <c r="G154">
         <v>-0.30690000000000001</v>
       </c>
       <c r="J154">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-6.8799999999999972E-2</v>
       </c>
       <c r="L154">
         <v>-0.4108</v>
       </c>
       <c r="O154">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>-5.7300000000000018E-2</v>
       </c>
       <c r="Q154">
         <v>-3.1E-2</v>
       </c>
       <c r="T154">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W154">
+        <f t="shared" si="18"/>
+        <v>1.0000346244005753</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>15400</v>
       </c>
@@ -11833,32 +12461,36 @@
         <v>-0.7994</v>
       </c>
       <c r="E155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>-5.9799999999999964E-2</v>
       </c>
       <c r="G155">
         <v>-0.37569999999999998</v>
       </c>
       <c r="J155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>5.5599999999999983E-2</v>
       </c>
       <c r="L155">
         <v>-0.46810000000000002</v>
       </c>
       <c r="O155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>7.1000000000000008E-2</v>
       </c>
       <c r="Q155">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="T155">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1.55E-2</v>
       </c>
-    </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W155">
+        <f t="shared" si="18"/>
+        <v>0.99996672944653509</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>15500</v>
       </c>
@@ -11866,32 +12498,36 @@
         <v>-0.85919999999999996</v>
       </c>
       <c r="E156">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>-0.13440000000000007</v>
       </c>
       <c r="G156">
         <v>-0.3201</v>
       </c>
       <c r="J156">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0.26039999999999996</v>
       </c>
       <c r="L156">
         <v>-0.39710000000000001</v>
       </c>
       <c r="O156">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0.3115</v>
       </c>
       <c r="Q156">
         <v>4.0500000000000001E-2</v>
       </c>
       <c r="T156">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>3.2999999999999974E-3</v>
       </c>
-    </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W156">
+        <f t="shared" si="18"/>
+        <v>1.0000086549625458</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>15600</v>
       </c>
@@ -11899,32 +12535,36 @@
         <v>-0.99360000000000004</v>
       </c>
       <c r="E157">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>9.4500000000000028E-2</v>
       </c>
       <c r="G157">
         <v>-5.9700000000000003E-2</v>
       </c>
       <c r="J157">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0.44210000000000005</v>
       </c>
       <c r="L157">
         <v>-8.5599999999999996E-2</v>
       </c>
       <c r="O157">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0.28649999999999998</v>
       </c>
       <c r="Q157">
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="T157">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>-0.11429999999999998</v>
       </c>
-    </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W157">
+        <f t="shared" si="18"/>
+        <v>1.000025424676793</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>15700</v>
       </c>
@@ -11932,32 +12572,36 @@
         <v>-0.89910000000000001</v>
       </c>
       <c r="E158">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0.23609999999999998</v>
       </c>
       <c r="G158">
         <v>0.38240000000000002</v>
       </c>
       <c r="J158">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0.20149999999999996</v>
       </c>
       <c r="L158">
         <v>0.2009</v>
       </c>
       <c r="O158">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0.2271</v>
       </c>
       <c r="Q158">
         <v>-7.0499999999999993E-2</v>
       </c>
       <c r="T158">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>-0.1201</v>
       </c>
-    </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W158">
+        <f t="shared" si="18"/>
+        <v>0.99997081457410542</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>15800</v>
       </c>
@@ -11965,32 +12609,36 @@
         <v>-0.66300000000000003</v>
       </c>
       <c r="E159">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0.29120000000000001</v>
       </c>
       <c r="G159">
         <v>0.58389999999999997</v>
       </c>
       <c r="J159">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0.15900000000000003</v>
       </c>
       <c r="L159">
         <v>0.42799999999999999</v>
       </c>
       <c r="O159">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>4.610000000000003E-2</v>
       </c>
       <c r="Q159">
         <v>-0.19059999999999999</v>
       </c>
       <c r="T159">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>-0.1013</v>
       </c>
-    </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W159">
+        <f t="shared" si="18"/>
+        <v>1.00001028494711</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>15900</v>
       </c>
@@ -11998,32 +12646,36 @@
         <v>-0.37180000000000002</v>
       </c>
       <c r="E160">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0.19650000000000001</v>
       </c>
       <c r="G160">
         <v>0.7429</v>
       </c>
       <c r="J160">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>9.1600000000000015E-2</v>
       </c>
       <c r="L160">
         <v>0.47410000000000002</v>
       </c>
       <c r="O160">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>-0.10630000000000001</v>
       </c>
       <c r="Q160">
         <v>-0.29189999999999999</v>
       </c>
       <c r="T160">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>-7.9000000000000015E-2</v>
       </c>
-    </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W160">
+        <f t="shared" si="18"/>
+        <v>1.0000560334301274</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>16000</v>
       </c>
@@ -12031,32 +12683,36 @@
         <v>-0.17530000000000001</v>
       </c>
       <c r="E161">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>8.5800000000000015E-2</v>
       </c>
       <c r="G161">
         <v>0.83450000000000002</v>
       </c>
       <c r="J161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>3.6599999999999966E-2</v>
       </c>
       <c r="L161">
         <v>0.36780000000000002</v>
       </c>
       <c r="O161">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>-3.7399999999999989E-2</v>
       </c>
       <c r="Q161">
         <v>-0.37090000000000001</v>
       </c>
       <c r="T161">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1.8699999999999994E-2</v>
       </c>
-    </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W161">
+        <f t="shared" si="18"/>
+        <v>0.99998199483790717</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>16100</v>
       </c>
@@ -12064,32 +12720,36 @@
         <v>-8.9499999999999996E-2</v>
       </c>
       <c r="E162">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="G162">
         <v>0.87109999999999999</v>
       </c>
       <c r="J162">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2.5600000000000067E-2</v>
       </c>
       <c r="L162">
         <v>0.33040000000000003</v>
       </c>
       <c r="O162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>-8.6900000000000033E-2</v>
       </c>
       <c r="Q162">
         <v>-0.35220000000000001</v>
       </c>
       <c r="T162">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>-1.6600000000000004E-2</v>
       </c>
-    </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W162">
+        <f t="shared" si="18"/>
+        <v>1.0000172298515662</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>16200</v>
       </c>
@@ -12097,32 +12757,36 @@
         <v>-2.2499999999999999E-2</v>
       </c>
       <c r="E163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0.1794</v>
       </c>
       <c r="G163">
         <v>0.89670000000000005</v>
       </c>
       <c r="J163">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>9.3999999999999639E-3</v>
       </c>
       <c r="L163">
         <v>0.24349999999999999</v>
       </c>
       <c r="O163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>-0.13089999999999999</v>
       </c>
       <c r="Q163">
         <v>-0.36880000000000002</v>
       </c>
       <c r="T163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>-7.6999999999999846E-3</v>
       </c>
-    </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W163">
+        <f t="shared" si="18"/>
+        <v>0.99994141328379849</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>16300</v>
       </c>
@@ -12130,32 +12794,36 @@
         <v>0.15690000000000001</v>
       </c>
       <c r="E164">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0.12279999999999999</v>
       </c>
       <c r="G164">
         <v>0.90610000000000002</v>
       </c>
       <c r="J164">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-9.7000000000000419E-3</v>
       </c>
       <c r="L164">
         <v>0.11260000000000001</v>
       </c>
       <c r="O164">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>-1.4200000000000004E-2</v>
       </c>
       <c r="Q164">
         <v>-0.3765</v>
       </c>
       <c r="T164">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>4.720000000000002E-2</v>
       </c>
-    </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W164">
+        <f t="shared" si="18"/>
+        <v>1.0000329144583193</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>16400</v>
       </c>
@@ -12163,32 +12831,36 @@
         <v>0.2797</v>
       </c>
       <c r="E165">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0.13650000000000001</v>
       </c>
       <c r="G165">
         <v>0.89639999999999997</v>
       </c>
       <c r="J165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-5.699999999999994E-2</v>
       </c>
       <c r="L165">
         <v>9.8400000000000001E-2</v>
       </c>
       <c r="O165">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>6.9000000000000034E-3</v>
       </c>
       <c r="Q165">
         <v>-0.32929999999999998</v>
       </c>
       <c r="T165">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>-4.0999999999999925E-3</v>
       </c>
-    </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W165">
+        <f t="shared" si="18"/>
+        <v>0.99994304837825632</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>16500</v>
       </c>
@@ -12196,32 +12868,36 @@
         <v>0.41620000000000001</v>
       </c>
       <c r="E166">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0.15869999999999995</v>
       </c>
       <c r="G166">
         <v>0.83940000000000003</v>
       </c>
       <c r="J166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-0.10870000000000002</v>
       </c>
       <c r="L166">
         <v>0.1053</v>
       </c>
       <c r="O166">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>-4.6400000000000004E-2</v>
       </c>
       <c r="Q166">
         <v>-0.33339999999999997</v>
       </c>
       <c r="T166">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>-3.0000000000000027E-2</v>
       </c>
-    </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W166">
+        <f t="shared" si="18"/>
+        <v>1.0000292245729623</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>16600</v>
       </c>
@@ -12229,32 +12905,36 @@
         <v>0.57489999999999997</v>
       </c>
       <c r="E167">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0.1573</v>
       </c>
       <c r="G167">
         <v>0.73070000000000002</v>
       </c>
       <c r="J167">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-0.23820000000000002</v>
       </c>
       <c r="L167">
         <v>5.8900000000000001E-2</v>
       </c>
       <c r="O167">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>-0.1913</v>
       </c>
       <c r="Q167">
         <v>-0.3634</v>
       </c>
       <c r="T167">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>-8.8000000000000023E-2</v>
       </c>
-    </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W167">
+        <f t="shared" si="18"/>
+        <v>0.99998063481249466</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>16700</v>
       </c>
@@ -12262,32 +12942,36 @@
         <v>0.73219999999999996</v>
       </c>
       <c r="E168">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>3.7800000000000056E-2</v>
       </c>
       <c r="G168">
         <v>0.49249999999999999</v>
       </c>
       <c r="J168">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-0.17009999999999997</v>
       </c>
       <c r="L168">
         <v>-0.13239999999999999</v>
       </c>
       <c r="O168">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>-0.11150000000000002</v>
       </c>
       <c r="Q168">
         <v>-0.45140000000000002</v>
       </c>
       <c r="T168">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>-4.2300000000000004E-2</v>
       </c>
-    </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W168">
+        <f t="shared" si="18"/>
+        <v>0.99998240484520518</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>16800</v>
       </c>
@@ -12295,32 +12979,36 @@
         <v>0.77</v>
       </c>
       <c r="E169">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>-1.4299999999999979E-2</v>
       </c>
       <c r="G169">
         <v>0.32240000000000002</v>
       </c>
       <c r="J169">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-0.10850000000000001</v>
       </c>
       <c r="L169">
         <v>-0.24390000000000001</v>
       </c>
       <c r="O169">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="Q169">
         <v>-0.49370000000000003</v>
       </c>
       <c r="T169">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>-2.0899999999999919E-2</v>
       </c>
-    </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W169">
+        <f t="shared" si="18"/>
+        <v>1.0000343294107457</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>16900</v>
       </c>
@@ -12328,32 +13016,36 @@
         <v>0.75570000000000004</v>
       </c>
       <c r="E170">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>1.4000000000000012E-2</v>
       </c>
       <c r="G170">
         <v>0.21390000000000001</v>
       </c>
       <c r="J170">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-5.5900000000000005E-2</v>
       </c>
       <c r="L170">
         <v>-0.34389999999999998</v>
       </c>
       <c r="O170">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>-2.6200000000000001E-2</v>
       </c>
       <c r="Q170">
         <v>-0.51459999999999995</v>
       </c>
       <c r="T170">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1.909999999999995E-2</v>
       </c>
-    </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W170">
+        <f t="shared" si="18"/>
+        <v>0.9999580341194324</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>17000</v>
       </c>
@@ -12361,32 +13053,36 @@
         <v>0.76970000000000005</v>
       </c>
       <c r="E171">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>2.7200000000000002E-2</v>
       </c>
       <c r="G171">
         <v>0.158</v>
       </c>
       <c r="J171">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-8.8700000000000001E-2</v>
       </c>
       <c r="L171">
         <v>-0.37009999999999998</v>
       </c>
       <c r="O171">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>4.3699999999999961E-2</v>
       </c>
       <c r="Q171">
         <v>-0.4955</v>
       </c>
       <c r="T171">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>-7.9999999999999516E-3</v>
       </c>
-    </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W171">
+        <f t="shared" si="18"/>
+        <v>0.99994817365701505</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>17100</v>
       </c>
@@ -12394,32 +13090,36 @@
         <v>0.79690000000000005</v>
       </c>
       <c r="E172">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>-6.2000000000000943E-3</v>
       </c>
       <c r="G172">
         <v>6.93E-2</v>
       </c>
       <c r="J172">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.5200000000000005E-2</v>
       </c>
       <c r="L172">
         <v>-0.32640000000000002</v>
       </c>
       <c r="O172">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>3.1400000000000039E-2</v>
       </c>
       <c r="Q172">
         <v>-0.50349999999999995</v>
       </c>
       <c r="T172">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>-2.6200000000000001E-2</v>
       </c>
-    </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W172">
+        <f t="shared" si="18"/>
+        <v>0.99995065378247538</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>17200</v>
       </c>
@@ -12427,32 +13127,36 @@
         <v>0.79069999999999996</v>
       </c>
       <c r="E173">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>-4.1199999999999903E-2</v>
       </c>
       <c r="G173">
         <v>8.4500000000000006E-2</v>
       </c>
       <c r="J173">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-4.0100000000000004E-2</v>
       </c>
       <c r="L173">
         <v>-0.29499999999999998</v>
       </c>
       <c r="O173">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>3.3299999999999996E-2</v>
       </c>
       <c r="Q173">
         <v>-0.52969999999999995</v>
       </c>
       <c r="T173">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>-7.6900000000000079E-2</v>
       </c>
-    </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W173">
+        <f t="shared" si="18"/>
+        <v>0.99997691473353523</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>17300</v>
       </c>
@@ -12460,32 +13164,36 @@
         <v>0.74950000000000006</v>
       </c>
       <c r="E174">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>-9.3400000000000039E-2</v>
       </c>
       <c r="G174">
         <v>4.4400000000000002E-2</v>
       </c>
       <c r="J174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.3499999999999998E-2</v>
       </c>
       <c r="L174">
         <v>-0.26169999999999999</v>
       </c>
       <c r="O174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>8.879999999999999E-2</v>
       </c>
       <c r="Q174">
         <v>-0.60660000000000003</v>
       </c>
       <c r="T174">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>-0.12569999999999992</v>
       </c>
-    </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W174">
+        <f t="shared" si="18"/>
+        <v>1.000086026299738</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>17400</v>
       </c>
@@ -12493,32 +13201,36 @@
         <v>0.65610000000000002</v>
       </c>
       <c r="E175">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>-9.7200000000000064E-2</v>
       </c>
       <c r="G175">
         <v>5.79E-2</v>
       </c>
       <c r="J175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-2.9600000000000001E-2</v>
       </c>
       <c r="L175">
         <v>-0.1729</v>
       </c>
       <c r="O175">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>6.0499999999999998E-2</v>
       </c>
       <c r="Q175">
         <v>-0.73229999999999995</v>
       </c>
       <c r="T175">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>-8.8800000000000101E-2</v>
       </c>
-    </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W175">
+        <f t="shared" si="18"/>
+        <v>0.99998865993570141</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>17500</v>
       </c>
@@ -12526,32 +13238,36 @@
         <v>0.55889999999999995</v>
       </c>
       <c r="E176">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>-0.13499999999999995</v>
       </c>
       <c r="G176">
         <v>2.8299999999999999E-2</v>
       </c>
       <c r="J176">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-1.9299999999999998E-2</v>
       </c>
       <c r="L176">
         <v>-0.1124</v>
       </c>
       <c r="O176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>4.1999999999999954E-3</v>
       </c>
       <c r="Q176">
         <v>-0.82110000000000005</v>
       </c>
       <c r="T176">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>-7.8099999999999947E-2</v>
       </c>
-    </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W176">
+        <f t="shared" si="18"/>
+        <v>1.0000045349897169</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>17600</v>
       </c>
@@ -12559,32 +13275,36 @@
         <v>0.4239</v>
       </c>
       <c r="E177">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>-0.17549999999999999</v>
       </c>
       <c r="G177">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="J177">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.2600000000000002E-2</v>
       </c>
       <c r="L177">
         <v>-0.1082</v>
       </c>
       <c r="O177">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>4.7500000000000007E-2</v>
       </c>
       <c r="Q177">
         <v>-0.8992</v>
       </c>
       <c r="T177">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>-6.7300000000000026E-2</v>
       </c>
-    </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W177">
+        <f t="shared" si="18"/>
+        <v>1.000020044799103</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>17700</v>
       </c>
@@ -12592,32 +13312,36 @@
         <v>0.24840000000000001</v>
       </c>
       <c r="E178">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>-0.13550000000000001</v>
       </c>
       <c r="G178">
         <v>2.1600000000000001E-2</v>
       </c>
       <c r="J178">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2.5700000000000001E-2</v>
       </c>
       <c r="L178">
         <v>-6.0699999999999997E-2</v>
       </c>
       <c r="O178">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.5299999999999994E-2</v>
       </c>
       <c r="Q178">
         <v>-0.96650000000000003</v>
       </c>
       <c r="T178">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>-2.5000000000000022E-2</v>
       </c>
-    </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W178">
+        <f t="shared" si="18"/>
+        <v>0.99998792992715668</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>17800</v>
       </c>
@@ -12625,32 +13349,36 @@
         <v>0.1129</v>
       </c>
       <c r="E179">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>-8.8700000000000001E-2</v>
       </c>
       <c r="G179">
         <v>4.7300000000000002E-2</v>
       </c>
       <c r="J179">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2.98E-2</v>
       </c>
       <c r="L179">
         <v>-4.5400000000000003E-2</v>
       </c>
       <c r="O179">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>-1.7999999999999995E-2</v>
       </c>
       <c r="Q179">
         <v>-0.99150000000000005</v>
       </c>
       <c r="T179">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>-3.1999999999999806E-3</v>
       </c>
-    </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W179">
+        <f t="shared" si="18"/>
+        <v>1.0000585532857564</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>17900</v>
       </c>
@@ -12658,32 +13386,36 @@
         <v>2.4199999999999999E-2</v>
       </c>
       <c r="E180">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>-0.1241</v>
       </c>
       <c r="G180">
         <v>7.7100000000000002E-2</v>
       </c>
       <c r="J180">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-2.6000000000000051E-3</v>
       </c>
       <c r="L180">
         <v>-6.3399999999999998E-2</v>
       </c>
       <c r="O180">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>-1.3399999999999995E-2</v>
       </c>
       <c r="Q180">
         <v>-0.99470000000000003</v>
       </c>
       <c r="T180">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>5.4000000000000714E-3</v>
       </c>
-    </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W180">
+        <f t="shared" si="18"/>
+        <v>0.9999888499378381</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>18000</v>
       </c>
@@ -12691,32 +13423,36 @@
         <v>-9.9900000000000003E-2</v>
       </c>
       <c r="E181">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>-0.19140000000000001</v>
       </c>
       <c r="G181">
         <v>7.4499999999999997E-2</v>
       </c>
       <c r="J181">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-4.6799999999999994E-2</v>
       </c>
       <c r="L181">
         <v>-7.6799999999999993E-2</v>
       </c>
       <c r="O181">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>-2.1600000000000008E-2</v>
       </c>
       <c r="Q181">
         <v>-0.98929999999999996</v>
       </c>
       <c r="T181">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>3.8099999999999912E-2</v>
       </c>
-    </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W181">
+        <f t="shared" si="18"/>
+        <v>1.0000714924444152</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>18100</v>
       </c>
@@ -12724,32 +13460,36 @@
         <v>-0.2913</v>
       </c>
       <c r="E182">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>-0.13029999999999997</v>
       </c>
       <c r="G182">
         <v>2.7699999999999999E-2</v>
       </c>
       <c r="J182">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-2.87E-2</v>
       </c>
       <c r="L182">
         <v>-9.8400000000000001E-2</v>
       </c>
       <c r="O182">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>-4.2999999999999983E-3</v>
       </c>
       <c r="Q182">
         <v>-0.95120000000000005</v>
       </c>
       <c r="T182">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>5.0300000000000011E-2</v>
       </c>
-    </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W182">
+        <f t="shared" si="18"/>
+        <v>1.000043489054351</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>18200</v>
       </c>
@@ -12757,32 +13497,36 @@
         <v>-0.42159999999999997</v>
       </c>
       <c r="E183">
-        <f>B184-B183</f>
+        <f t="shared" ref="E183:E199" si="19">B184-B183</f>
         <v>-4.4200000000000017E-2</v>
       </c>
       <c r="G183">
         <v>-1E-3</v>
       </c>
       <c r="J183">
-        <f>G184-G183</f>
+        <f t="shared" ref="J183:J199" si="20">G184-G183</f>
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="L183">
         <v>-0.1027</v>
       </c>
       <c r="O183">
-        <f>L184-L183</f>
+        <f t="shared" ref="O183:O199" si="21">L184-L183</f>
         <v>3.6400000000000002E-2</v>
       </c>
       <c r="Q183">
         <v>-0.90090000000000003</v>
       </c>
       <c r="T183">
-        <f>Q184-Q183</f>
+        <f t="shared" ref="T183:T199" si="22">Q184-Q183</f>
         <v>1.8600000000000061E-2</v>
       </c>
-    </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W183">
+        <f t="shared" si="18"/>
+        <v>0.99995782911080811</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>18300</v>
       </c>
@@ -12790,32 +13534,36 @@
         <v>-0.46579999999999999</v>
       </c>
       <c r="E184">
-        <f>B185-B184</f>
+        <f t="shared" si="19"/>
         <v>-1.9100000000000006E-2</v>
       </c>
       <c r="G184">
         <v>1.06E-2</v>
       </c>
       <c r="J184">
-        <f>G185-G184</f>
+        <f t="shared" si="20"/>
         <v>-1.0800000000000001E-2</v>
       </c>
       <c r="L184">
         <v>-6.6299999999999998E-2</v>
       </c>
       <c r="O184">
-        <f>L185-L184</f>
+        <f t="shared" si="21"/>
         <v>2.2800000000000001E-2</v>
       </c>
       <c r="Q184">
         <v>-0.88229999999999997</v>
       </c>
       <c r="T184">
-        <f>Q185-Q184</f>
+        <f t="shared" si="22"/>
         <v>8.799999999999919E-3</v>
       </c>
-    </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W184">
+        <f t="shared" si="18"/>
+        <v>0.99996548940450947</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>18400</v>
       </c>
@@ -12823,32 +13571,36 @@
         <v>-0.4849</v>
       </c>
       <c r="E185">
-        <f>B186-B185</f>
+        <f t="shared" si="19"/>
         <v>-3.0100000000000016E-2</v>
       </c>
       <c r="G185">
         <v>-2.0000000000000001E-4</v>
       </c>
       <c r="J185">
-        <f>G186-G185</f>
+        <f t="shared" si="20"/>
         <v>-1.1299999999999999E-2</v>
       </c>
       <c r="L185">
         <v>-4.3499999999999997E-2</v>
       </c>
       <c r="O185">
-        <f>L186-L185</f>
+        <f t="shared" si="21"/>
         <v>2.0999999999999998E-2</v>
       </c>
       <c r="Q185">
         <v>-0.87350000000000005</v>
       </c>
       <c r="T185">
-        <f>Q186-Q185</f>
+        <f t="shared" si="22"/>
         <v>1.6600000000000059E-2</v>
       </c>
-    </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W185">
+        <f t="shared" si="18"/>
+        <v>1.000011274936438</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>18500</v>
       </c>
@@ -12856,32 +13608,36 @@
         <v>-0.51500000000000001</v>
       </c>
       <c r="E186">
-        <f>B187-B186</f>
+        <f t="shared" si="19"/>
         <v>-3.1000000000000028E-2</v>
       </c>
       <c r="G186">
         <v>-1.15E-2</v>
       </c>
       <c r="J186">
-        <f>G187-G186</f>
+        <f t="shared" si="20"/>
         <v>7.7000000000000002E-3</v>
       </c>
       <c r="L186">
         <v>-2.2499999999999999E-2</v>
       </c>
       <c r="O186">
-        <f>L187-L186</f>
+        <f t="shared" si="21"/>
         <v>2.0799999999999999E-2</v>
       </c>
       <c r="Q186">
         <v>-0.8569</v>
       </c>
       <c r="T186">
-        <f>Q187-Q186</f>
+        <f t="shared" si="22"/>
         <v>1.9100000000000006E-2</v>
       </c>
-    </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W186">
+        <f t="shared" si="18"/>
+        <v>1.0000705525111715</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>18600</v>
       </c>
@@ -12889,32 +13645,36 @@
         <v>-0.54600000000000004</v>
       </c>
       <c r="E187">
-        <f>B188-B187</f>
+        <f t="shared" si="19"/>
         <v>-2.9999999999996696E-4</v>
       </c>
       <c r="G187">
         <v>-3.8E-3</v>
       </c>
       <c r="J187">
-        <f>G188-G187</f>
+        <f t="shared" si="20"/>
         <v>-1.84E-2</v>
       </c>
       <c r="L187">
         <v>-1.6999999999999999E-3</v>
       </c>
       <c r="O187">
-        <f>L188-L187</f>
+        <f t="shared" si="21"/>
         <v>-2.1000000000000003E-3</v>
       </c>
       <c r="Q187">
         <v>-0.83779999999999999</v>
       </c>
       <c r="T187">
-        <f>Q188-Q187</f>
+        <f t="shared" si="22"/>
         <v>4.9999999999994493E-4</v>
       </c>
-    </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W187">
+        <f t="shared" si="18"/>
+        <v>1.000021084777716</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>18700</v>
       </c>
@@ -12922,32 +13682,36 @@
         <v>-0.54630000000000001</v>
       </c>
       <c r="E188">
-        <f>B189-B188</f>
+        <f t="shared" si="19"/>
         <v>-1.2599999999999945E-2</v>
       </c>
       <c r="G188">
         <v>-2.2200000000000001E-2</v>
       </c>
       <c r="J188">
-        <f>G189-G188</f>
+        <f t="shared" si="20"/>
         <v>3.2000000000000015E-3</v>
       </c>
       <c r="L188">
         <v>-3.8E-3</v>
       </c>
       <c r="O188">
-        <f>L189-L188</f>
+        <f t="shared" si="21"/>
         <v>-4.4000000000000011E-3</v>
       </c>
       <c r="Q188">
         <v>-0.83730000000000004</v>
       </c>
       <c r="T188">
-        <f>Q189-Q188</f>
+        <f t="shared" si="22"/>
         <v>8.3000000000000851E-3</v>
       </c>
-    </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W188">
+        <f t="shared" si="18"/>
+        <v>1.0000111299380623</v>
+      </c>
+    </row>
+    <row r="189" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>18800</v>
       </c>
@@ -12955,32 +13719,36 @@
         <v>-0.55889999999999995</v>
       </c>
       <c r="E189">
-        <f>B190-B189</f>
+        <f t="shared" si="19"/>
         <v>-1.8000000000000016E-2</v>
       </c>
       <c r="G189">
         <v>-1.9E-2</v>
       </c>
       <c r="J189">
-        <f>G190-G189</f>
+        <f t="shared" si="20"/>
         <v>1.3999999999999985E-3</v>
       </c>
       <c r="L189">
         <v>-8.2000000000000007E-3</v>
       </c>
       <c r="O189">
-        <f>L190-L189</f>
+        <f t="shared" si="21"/>
         <v>5.0000000000000044E-4</v>
       </c>
       <c r="Q189">
         <v>-0.82899999999999996</v>
       </c>
       <c r="T189">
-        <f>Q190-Q189</f>
+        <f t="shared" si="22"/>
         <v>1.2399999999999967E-2</v>
       </c>
-    </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W189">
+        <f t="shared" si="18"/>
+        <v>1.0000192248152031</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>18900</v>
       </c>
@@ -12988,32 +13756,36 @@
         <v>-0.57689999999999997</v>
       </c>
       <c r="E190">
-        <f>B191-B190</f>
+        <f t="shared" si="19"/>
         <v>-2.970000000000006E-2</v>
       </c>
       <c r="G190">
         <v>-1.7600000000000001E-2</v>
       </c>
       <c r="J190">
-        <f>G191-G190</f>
+        <f t="shared" si="20"/>
         <v>-2.9999999999999818E-4</v>
       </c>
       <c r="L190">
         <v>-7.7000000000000002E-3</v>
       </c>
       <c r="O190">
-        <f>L191-L190</f>
+        <f t="shared" si="21"/>
         <v>1.2000000000000005E-3</v>
       </c>
       <c r="Q190">
         <v>-0.81659999999999999</v>
       </c>
       <c r="T190">
-        <f>Q191-Q190</f>
+        <f t="shared" si="22"/>
         <v>2.1800000000000042E-2</v>
       </c>
-    </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W190">
+        <f t="shared" si="18"/>
+        <v>1.0000091099585042</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>19000</v>
       </c>
@@ -13021,32 +13793,36 @@
         <v>-0.60660000000000003</v>
       </c>
       <c r="E191">
-        <f>B192-B191</f>
+        <f t="shared" si="19"/>
         <v>-2.3299999999999987E-2</v>
       </c>
       <c r="G191">
         <v>-1.7899999999999999E-2</v>
       </c>
       <c r="J191">
-        <f>G192-G191</f>
+        <f t="shared" si="20"/>
         <v>3.9999999999999758E-4</v>
       </c>
       <c r="L191">
         <v>-6.4999999999999997E-3</v>
       </c>
       <c r="O191">
-        <f>L192-L191</f>
+        <f t="shared" si="21"/>
         <v>1.3999999999999993E-3</v>
       </c>
       <c r="Q191">
         <v>-0.79479999999999995</v>
       </c>
       <c r="T191">
-        <f>Q192-Q191</f>
+        <f t="shared" si="22"/>
         <v>1.8399999999999972E-2</v>
       </c>
-    </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W191">
+        <f t="shared" si="18"/>
+        <v>1.0000166298617239</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>19100</v>
       </c>
@@ -13054,32 +13830,36 @@
         <v>-0.62990000000000002</v>
       </c>
       <c r="E192">
-        <f>B193-B192</f>
+        <f t="shared" si="19"/>
         <v>-1.8000000000000238E-3</v>
       </c>
       <c r="G192">
         <v>-1.7500000000000002E-2</v>
       </c>
       <c r="J192">
-        <f>G193-G192</f>
+        <f t="shared" si="20"/>
         <v>3.2000000000000015E-3</v>
       </c>
       <c r="L192">
         <v>-5.1000000000000004E-3</v>
       </c>
       <c r="O192">
-        <f>L193-L192</f>
+        <f t="shared" si="21"/>
         <v>2.6000000000000003E-3</v>
       </c>
       <c r="Q192">
         <v>-0.77639999999999998</v>
       </c>
       <c r="T192">
-        <f>Q193-Q192</f>
+        <f t="shared" si="22"/>
         <v>1.2999999999999678E-3</v>
       </c>
-    </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W192">
+        <f t="shared" si="18"/>
+        <v>0.99995161382938924</v>
+      </c>
+    </row>
+    <row r="193" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>19200</v>
       </c>
@@ -13087,32 +13867,36 @@
         <v>-0.63170000000000004</v>
       </c>
       <c r="E193">
-        <f>B194-B193</f>
+        <f t="shared" si="19"/>
         <v>5.0000000000005596E-4</v>
       </c>
       <c r="G193">
         <v>-1.43E-2</v>
       </c>
       <c r="J193">
-        <f>G194-G193</f>
+        <f t="shared" si="20"/>
         <v>3.1000000000000003E-3</v>
       </c>
       <c r="L193">
         <v>-2.5000000000000001E-3</v>
       </c>
       <c r="O193">
-        <f>L194-L193</f>
+        <f t="shared" si="21"/>
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="Q193">
         <v>-0.77510000000000001</v>
       </c>
       <c r="T193">
-        <f>Q194-Q193</f>
+        <f t="shared" si="22"/>
         <v>-3.9999999999995595E-4</v>
       </c>
-    </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W193">
+        <f t="shared" si="18"/>
+        <v>1.0000178198412266</v>
+      </c>
+    </row>
+    <row r="194" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>19300</v>
       </c>
@@ -13120,32 +13904,36 @@
         <v>-0.63119999999999998</v>
       </c>
       <c r="E194">
-        <f>B195-B194</f>
+        <f t="shared" si="19"/>
         <v>2.0999999999999908E-3</v>
       </c>
       <c r="G194">
         <v>-1.12E-2</v>
       </c>
       <c r="J194">
-        <f>G195-G194</f>
+        <f t="shared" si="20"/>
         <v>2.3E-3</v>
       </c>
       <c r="L194">
         <v>-2.9999999999999997E-4</v>
       </c>
       <c r="O194">
-        <f>L195-L194</f>
+        <f t="shared" si="21"/>
         <v>1.8E-3</v>
       </c>
       <c r="Q194">
         <v>-0.77549999999999997</v>
       </c>
       <c r="T194">
-        <f>Q195-Q194</f>
+        <f t="shared" si="22"/>
         <v>-1.8000000000000238E-3</v>
       </c>
-    </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W194">
+        <f t="shared" si="18"/>
+        <v>0.9999696095382099</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>19400</v>
       </c>
@@ -13153,32 +13941,36 @@
         <v>-0.62909999999999999</v>
       </c>
       <c r="E195">
-        <f>B196-B195</f>
+        <f t="shared" si="19"/>
         <v>9.9999999999988987E-5</v>
       </c>
       <c r="G195">
         <v>-8.8999999999999999E-3</v>
       </c>
       <c r="J195">
-        <f>G196-G195</f>
+        <f t="shared" si="20"/>
         <v>1.5999999999999999E-3</v>
       </c>
       <c r="L195">
         <v>1.5E-3</v>
       </c>
       <c r="O195">
-        <f>L196-L195</f>
+        <f t="shared" si="21"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="Q195">
         <v>-0.77729999999999999</v>
       </c>
       <c r="T195">
-        <f>Q196-Q195</f>
+        <f t="shared" si="22"/>
         <v>-9.9999999999988987E-5</v>
       </c>
-    </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W195">
+        <f t="shared" ref="W195:W199" si="23">SQRT(POWER(B195,2)+POWER(G195,2)+POWER(L195,2)+POWER(Q195,2))</f>
+        <v>1.000021779762821</v>
+      </c>
+    </row>
+    <row r="196" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>19500</v>
       </c>
@@ -13186,32 +13978,36 @@
         <v>-0.629</v>
       </c>
       <c r="E196">
-        <f>B197-B196</f>
+        <f t="shared" si="19"/>
         <v>1.9999999999997797E-4</v>
       </c>
       <c r="G196">
         <v>-7.3000000000000001E-3</v>
       </c>
       <c r="J196">
-        <f>G197-G196</f>
+        <f t="shared" si="20"/>
         <v>1.4000000000000002E-3</v>
       </c>
       <c r="L196">
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="O196">
-        <f>L197-L196</f>
+        <f t="shared" si="21"/>
         <v>1.0999999999999998E-3</v>
       </c>
       <c r="Q196">
         <v>-0.77739999999999998</v>
       </c>
       <c r="T196">
-        <f>Q197-Q196</f>
+        <f t="shared" si="22"/>
         <v>-9.9999999999988987E-5</v>
       </c>
-    </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W196">
+        <f t="shared" si="23"/>
+        <v>1.0000261696575745</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>19600</v>
       </c>
@@ -13219,32 +14015,36 @@
         <v>-0.62880000000000003</v>
       </c>
       <c r="E197">
-        <f>B198-B197</f>
+        <f t="shared" si="19"/>
         <v>3.0000000000007798E-4</v>
       </c>
       <c r="G197">
         <v>-5.8999999999999999E-3</v>
       </c>
       <c r="J197">
-        <f>G198-G197</f>
+        <f t="shared" si="20"/>
         <v>1E-3</v>
       </c>
       <c r="L197">
         <v>3.8E-3</v>
       </c>
       <c r="O197">
-        <f>L198-L197</f>
+        <f t="shared" si="21"/>
         <v>6.9999999999999967E-4</v>
       </c>
       <c r="Q197">
         <v>-0.77749999999999997</v>
       </c>
       <c r="T197">
-        <f>Q198-Q197</f>
+        <f t="shared" si="22"/>
         <v>-3.0000000000007798E-4</v>
       </c>
-    </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W197">
+        <f t="shared" si="23"/>
+        <v>0.99997246962103914</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>19700</v>
       </c>
@@ -13252,32 +14052,36 @@
         <v>-0.62849999999999995</v>
       </c>
       <c r="E198">
-        <f>B199-B198</f>
+        <f t="shared" si="19"/>
         <v>-1.0000000000010001E-4</v>
       </c>
       <c r="G198">
         <v>-4.8999999999999998E-3</v>
       </c>
       <c r="J198">
-        <f>G199-G198</f>
+        <f t="shared" si="20"/>
         <v>8.9999999999999976E-4</v>
       </c>
       <c r="L198">
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="O198">
-        <f>L199-L198</f>
+        <f t="shared" si="21"/>
         <v>7.000000000000001E-4</v>
       </c>
       <c r="Q198">
         <v>-0.77780000000000005</v>
       </c>
       <c r="T198">
-        <f>Q199-Q198</f>
+        <f t="shared" si="22"/>
         <v>1.0000000000010001E-4</v>
       </c>
-    </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W198">
+        <f t="shared" si="23"/>
+        <v>1.0000146748923238</v>
+      </c>
+    </row>
+    <row r="199" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>19800</v>
       </c>
@@ -13285,29 +14089,33 @@
         <v>-0.62860000000000005</v>
       </c>
       <c r="E199">
-        <f>B200-B199</f>
+        <f t="shared" si="19"/>
         <v>0.62860000000000005</v>
       </c>
       <c r="G199">
         <v>-4.0000000000000001E-3</v>
       </c>
       <c r="J199">
-        <f>G200-G199</f>
+        <f t="shared" si="20"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="L199">
         <v>5.1999999999999998E-3</v>
       </c>
       <c r="O199">
-        <f>L200-L199</f>
+        <f t="shared" si="21"/>
         <v>-5.1999999999999998E-3</v>
       </c>
       <c r="Q199">
         <v>-0.77769999999999995</v>
       </c>
       <c r="T199">
-        <f>Q200-Q199</f>
+        <f t="shared" si="22"/>
         <v>0.77769999999999995</v>
+      </c>
+      <c r="W199">
+        <f t="shared" si="23"/>
+        <v>0.99999914499963449</v>
       </c>
     </row>
   </sheetData>
